--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317A69D-289E-435B-8210-1CD54ACF62B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5B4BA8-DBC5-4065-85E9-54B3845B9AD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1787,9 +1787,6 @@
     <t>endIndex</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>Test RepeatUntil-Assert</t>
   </si>
   <si>
@@ -1842,6 +1839,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>120000</t>
   </si>
 </sst>
 </file>
@@ -4548,7 +4548,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4683,10 +4683,10 @@
     </row>
     <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>572</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>13</v>
@@ -4695,7 +4695,7 @@
         <v>69</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4718,7 +4718,7 @@
         <v>194</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4734,7 +4734,7 @@
     <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>13</v>
@@ -4771,7 +4771,7 @@
         <v>569</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -4786,7 +4786,7 @@
     <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>13</v>
@@ -4795,10 +4795,10 @@
         <v>317</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -4813,7 +4813,7 @@
     <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="38" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>51</v>
@@ -4822,10 +4822,10 @@
         <v>29</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>578</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -4847,7 +4847,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -4870,7 +4870,7 @@
         <v>194</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -4896,7 +4896,7 @@
         <v>567</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -4911,7 +4911,7 @@
     <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>51</v>
@@ -4920,10 +4920,10 @@
         <v>423</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>578</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -4938,7 +4938,7 @@
     <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>13</v>
@@ -4947,7 +4947,7 @@
         <v>377</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -4970,7 +4970,7 @@
         <v>69</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5B4BA8-DBC5-4065-85E9-54B3845B9AD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AE5B4BA8-DBC5-4065-85E9-54B3845B9AD7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -26,7 +26,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -39,22 +39,22 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1842,13 +1842,20 @@
   </si>
   <si>
     <t>120000</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1940,8 +1947,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1960,8 +2068,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1999,156 +2260,530 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="55">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="3" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="3" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2212,7 +2847,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2237,10 +2872,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2275,7 +2910,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2310,7 +2945,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2404,21 +3039,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2435,7 +3070,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2487,26 +3122,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2583,28 +3218,25 @@
         <v>389</v>
       </c>
       <c r="Z1" t="s">
-        <v>558</v>
+        <v>53</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" t="s">
-        <v>56</v>
+        <v>406</v>
       </c>
       <c r="AE1" t="s">
-        <v>406</v>
-      </c>
-      <c r="AF1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>364</v>
       </c>
@@ -2681,28 +3313,25 @@
         <v>399</v>
       </c>
       <c r="Z2" t="s">
-        <v>561</v>
+        <v>95</v>
       </c>
       <c r="AA2" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AB2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AC2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AD2" t="s">
-        <v>180</v>
+        <v>424</v>
       </c>
       <c r="AE2" t="s">
-        <v>424</v>
-      </c>
-      <c r="AF2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>447</v>
       </c>
@@ -2770,28 +3399,25 @@
         <v>400</v>
       </c>
       <c r="Z3" t="s">
-        <v>559</v>
+        <v>96</v>
       </c>
       <c r="AA3" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AB3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AC3" t="s">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="AD3" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="AE3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>468</v>
       </c>
@@ -2856,28 +3482,25 @@
         <v>401</v>
       </c>
       <c r="Z4" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="AA4" t="s">
-        <v>546</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AC4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AD4" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="AE4" t="s">
-        <v>416</v>
-      </c>
-      <c r="AF4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>539</v>
       </c>
@@ -2933,28 +3556,25 @@
         <v>352</v>
       </c>
       <c r="Z5" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="AA5" t="s">
-        <v>543</v>
+        <v>171</v>
       </c>
       <c r="AB5" t="s">
-        <v>171</v>
+        <v>556</v>
       </c>
       <c r="AC5" t="s">
-        <v>556</v>
+        <v>182</v>
       </c>
       <c r="AD5" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="AE5" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3007,28 +3627,25 @@
         <v>354</v>
       </c>
       <c r="Z6" t="s">
-        <v>564</v>
+        <v>97</v>
       </c>
       <c r="AA6" t="s">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="AB6" t="s">
-        <v>437</v>
+        <v>176</v>
       </c>
       <c r="AC6" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AD6" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="AE6" t="s">
-        <v>418</v>
-      </c>
-      <c r="AF6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3071,26 +3688,26 @@
       <c r="X7" t="s">
         <v>353</v>
       </c>
+      <c r="Z7" t="s">
+        <v>98</v>
+      </c>
       <c r="AA7" t="s">
-        <v>98</v>
+        <v>438</v>
       </c>
       <c r="AB7" t="s">
-        <v>438</v>
+        <v>177</v>
       </c>
       <c r="AC7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AD7" t="s">
-        <v>184</v>
+        <v>419</v>
       </c>
       <c r="AE7" t="s">
-        <v>419</v>
-      </c>
-      <c r="AF7" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3127,26 +3744,26 @@
       <c r="X8" t="s">
         <v>355</v>
       </c>
+      <c r="Z8" t="s">
+        <v>99</v>
+      </c>
       <c r="AA8" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="AB8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AC8" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AD8" t="s">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="AE8" t="s">
-        <v>420</v>
-      </c>
-      <c r="AF8" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3183,20 +3800,20 @@
       <c r="X9" t="s">
         <v>356</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="Z9" t="s">
         <v>206</v>
       </c>
+      <c r="AB9" t="s">
+        <v>179</v>
+      </c>
       <c r="AC9" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD9" t="s">
         <v>186</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AE9" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3207,7 +3824,7 @@
         <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>444</v>
+        <v>589</v>
       </c>
       <c r="L10" t="s">
         <v>79</v>
@@ -3227,20 +3844,20 @@
       <c r="U10" t="s">
         <v>398</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
+      <c r="AB10" t="s">
+        <v>555</v>
+      </c>
       <c r="AC10" t="s">
-        <v>555</v>
-      </c>
-      <c r="AD10" t="s">
         <v>187</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AE10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>343</v>
       </c>
@@ -3251,7 +3868,7 @@
         <v>348</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
+        <v>444</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -3268,17 +3885,17 @@
       <c r="S11" t="s">
         <v>245</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AE11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3289,7 +3906,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L12" t="s">
         <v>478</v>
@@ -3306,17 +3923,17 @@
       <c r="S12" t="s">
         <v>246</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="Z12" t="s">
         <v>100</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AC12" t="s">
         <v>188</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AE12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -3327,7 +3944,7 @@
         <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L13" t="s">
         <v>382</v>
@@ -3339,19 +3956,19 @@
         <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA13" t="s">
+        <v>590</v>
+      </c>
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AC13" t="s">
         <v>189</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AE13" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3362,7 +3979,7 @@
         <v>312</v>
       </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -3374,19 +3991,19 @@
         <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA14" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z14" t="s">
         <v>101</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AC14" t="s">
         <v>190</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AE14" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>499</v>
       </c>
@@ -3396,6 +4013,9 @@
       <c r="H15" t="s">
         <v>260</v>
       </c>
+      <c r="I15" t="s">
+        <v>321</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -3406,19 +4026,19 @@
         <v>483</v>
       </c>
       <c r="S15" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA15" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z15" t="s">
         <v>563</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AC15" t="s">
         <v>191</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AE15" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>469</v>
       </c>
@@ -3438,19 +4058,19 @@
         <v>484</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA16" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z16" t="s">
         <v>102</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AC16" t="s">
         <v>192</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AE16" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -3466,17 +4086,20 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="S17" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z17" t="s">
         <v>74</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AC17" t="s">
         <v>459</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AE17" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3492,14 +4115,14 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="Z18" t="s">
         <v>485</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AE18" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -3512,14 +4135,14 @@
       <c r="L19" t="s">
         <v>455</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AE19" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -3532,14 +4155,14 @@
       <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AE20" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>388</v>
       </c>
@@ -3552,14 +4175,14 @@
       <c r="L21" t="s">
         <v>83</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AE21" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>404</v>
       </c>
@@ -3572,14 +4195,14 @@
       <c r="L22" t="s">
         <v>545</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="Z22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AE22" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>405</v>
       </c>
@@ -3592,14 +4215,14 @@
       <c r="L23" t="s">
         <v>462</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="Z23" t="s">
         <v>486</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AE23" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>350</v>
       </c>
@@ -3612,14 +4235,14 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="Z24" t="s">
         <v>107</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AE24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>389</v>
       </c>
@@ -3632,16 +4255,16 @@
       <c r="L25" t="s">
         <v>384</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="Z25" t="s">
         <v>533</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AE25" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
-        <v>558</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
         <v>441</v>
@@ -3652,16 +4275,16 @@
       <c r="L26" t="s">
         <v>516</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="Z26" t="s">
         <v>108</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AE26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>222</v>
@@ -3672,16 +4295,16 @@
       <c r="L27" t="s">
         <v>84</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="Z27" t="s">
         <v>109</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AE27" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
         <v>223</v>
@@ -3692,13 +4315,13 @@
       <c r="L28" t="s">
         <v>426</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="Z28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>460</v>
@@ -3709,13 +4332,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="Z29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>406</v>
       </c>
       <c r="F30" t="s">
         <v>461</v>
@@ -3726,13 +4349,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="Z30" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="F31" t="s">
         <v>408</v>
@@ -3740,834 +4363,831 @@
       <c r="H31" t="s">
         <v>213</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="Z31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>224</v>
-      </c>
+    <row r="32">
       <c r="F32" t="s">
         <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="Z32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="F33" t="s">
         <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="Z33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
         <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>501</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="Z34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
         <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="Z35" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
         <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="Z36" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
         <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="Z37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
         <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="Z38" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
         <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="Z39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="Z40" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="Z41" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="H42" t="s">
         <v>209</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="Z42" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="H43" t="s">
         <v>530</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="Z43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="Z44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="Z45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="Z46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="Z47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="Z48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="Z49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="Z50" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="Z51" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="Z52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="Z53" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>349</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="Z54" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="Z55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="Z56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="Z57" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="Z58" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>531</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="Z59" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="Z60" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="Z61" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="Z62" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="Z63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="Z64" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="Z65" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>362</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="Z66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>363</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="Z67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="Z68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="Z69" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="Z70" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>517</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="Z71" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="Z72" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>402</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="Z73" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="Z74" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>403</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="Z75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="Z76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>502</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="Z77" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="Z78" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="AA79" t="s">
+      <c r="Z79" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="AA80" t="s">
+      <c r="Z80" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="AA81" t="s">
+      <c r="Z81" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="H82" t="s">
         <v>421</v>
       </c>
-      <c r="AA82" t="s">
+      <c r="Z82" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="AA83" t="s">
+      <c r="Z83" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="AA84" t="s">
+      <c r="Z84" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="AA85" t="s">
+      <c r="Z85" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="AA86" t="s">
+      <c r="Z86" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="AA87" t="s">
+      <c r="Z87" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="H88" t="s">
         <v>519</v>
       </c>
-      <c r="AA88" t="s">
+      <c r="Z88" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="AA89" t="s">
+      <c r="Z89" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="AA90" t="s">
+      <c r="Z90" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="AA91" t="s">
+      <c r="Z91" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="AA92" t="s">
+      <c r="Z92" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="AA93" t="s">
+      <c r="Z93" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="AA94" t="s">
+      <c r="Z94" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="AA95" t="s">
+      <c r="Z95" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="AA96" t="s">
+      <c r="Z96" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="AA97" t="s">
+      <c r="Z97" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="Z98" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="138">
+      <c r="Z138" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="139">
+      <c r="Z139" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="140">
+      <c r="Z140" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
+    <row r="141">
+      <c r="Z141" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="142">
+      <c r="Z142" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="143">
+      <c r="Z143" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="144">
+      <c r="Z144" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="15.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.875" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="23.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="38.875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="32.5" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="15.875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="15.875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4598,7 +5218,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>566</v>
       </c>
@@ -4619,7 +5239,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4636,7 +5256,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
@@ -4681,7 +5301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>570</v>
       </c>
@@ -4708,7 +5328,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4731,7 +5351,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>573</v>
@@ -4758,7 +5378,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4783,7 +5403,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="37" t="s">
         <v>574</v>
@@ -4810,7 +5430,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="38" t="s">
         <v>575</v>
@@ -4837,7 +5457,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="37"/>
       <c r="C11" s="13" t="s">
@@ -4860,7 +5480,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="37"/>
       <c r="C12" s="13" t="s">
@@ -4883,7 +5503,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="37"/>
       <c r="C13" s="13" t="s">
@@ -4908,7 +5528,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
         <v>579</v>
@@ -4935,7 +5555,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>584</v>
@@ -4960,7 +5580,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -4983,7 +5603,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -5000,7 +5620,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -5017,7 +5637,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -5034,7 +5654,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -5051,7 +5671,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -5068,7 +5688,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -5085,7 +5705,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -5102,7 +5722,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -5119,7 +5739,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5136,7 +5756,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5153,7 +5773,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5170,7 +5790,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -5187,7 +5807,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5204,7 +5824,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="8"/>
       <c r="C30" s="13"/>
@@ -5221,7 +5841,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5238,7 +5858,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5255,7 +5875,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5272,7 +5892,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5289,7 +5909,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5306,7 +5926,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5323,7 +5943,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5340,7 +5960,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5357,7 +5977,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5374,7 +5994,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5391,7 +6011,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5408,7 +6028,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5425,7 +6045,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5442,7 +6062,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5459,7 +6079,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5476,7 +6096,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5493,7 +6113,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5510,7 +6130,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5527,7 +6147,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5544,7 +6164,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5561,7 +6181,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5578,7 +6198,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5595,7 +6215,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5612,7 +6232,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5629,7 +6249,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5646,7 +6266,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5663,7 +6283,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5680,7 +6300,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5697,7 +6317,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5714,7 +6334,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5731,7 +6351,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5748,7 +6368,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5765,7 +6385,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5782,7 +6402,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5799,7 +6419,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5816,7 +6436,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5833,7 +6453,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5850,7 +6470,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5867,7 +6487,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5884,7 +6504,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5901,7 +6521,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5918,7 +6538,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5935,7 +6555,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5952,7 +6572,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5969,7 +6589,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5986,7 +6606,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -6003,7 +6623,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -6020,7 +6640,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -6037,7 +6657,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -6054,7 +6674,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -6071,7 +6691,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -6088,7 +6708,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -6105,7 +6725,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -6122,7 +6742,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -6139,7 +6759,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6156,7 +6776,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6173,7 +6793,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6190,7 +6810,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6207,7 +6827,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6224,7 +6844,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6241,7 +6861,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6258,7 +6878,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6275,7 +6895,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6292,7 +6912,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6309,7 +6929,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6326,7 +6946,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6343,7 +6963,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6360,7 +6980,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6377,7 +6997,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6394,7 +7014,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6411,7 +7031,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -6428,7 +7048,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -6445,7 +7065,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -6462,7 +7082,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -6479,7 +7099,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -6496,7 +7116,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -6513,7 +7133,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -6530,7 +7150,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6547,7 +7167,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6564,7 +7184,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6581,7 +7201,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6598,7 +7218,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6615,7 +7235,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6632,7 +7252,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6649,7 +7269,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6666,7 +7286,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6683,7 +7303,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6700,7 +7320,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6717,7 +7337,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6734,7 +7354,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6751,7 +7371,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6768,7 +7388,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6785,7 +7405,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6802,7 +7422,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6819,7 +7439,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6836,7 +7456,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6853,7 +7473,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6870,7 +7490,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6887,7 +7507,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6904,7 +7524,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6921,7 +7541,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6938,7 +7558,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6955,7 +7575,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6972,7 +7592,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6989,7 +7609,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -7006,7 +7626,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -7023,7 +7643,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -7040,7 +7660,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -7057,7 +7677,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -7074,7 +7694,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -7091,7 +7711,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -7108,7 +7728,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -7125,7 +7745,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -7142,7 +7762,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -7159,7 +7779,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -7176,7 +7796,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -7193,7 +7813,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -7210,7 +7830,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -7227,7 +7847,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -7244,7 +7864,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -7261,7 +7881,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -7278,7 +7898,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -7295,7 +7915,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -7312,7 +7932,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -7329,7 +7949,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -7346,7 +7966,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -7363,7 +7983,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -7380,7 +8000,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -7397,7 +8017,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -7414,7 +8034,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -7431,7 +8051,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -7448,7 +8068,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -7465,7 +8085,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -7482,7 +8102,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -7499,7 +8119,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -7516,7 +8136,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -7533,7 +8153,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7550,7 +8170,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7567,7 +8187,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7584,7 +8204,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7601,7 +8221,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7618,7 +8238,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7635,7 +8255,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7652,7 +8272,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7669,7 +8289,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7686,7 +8306,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7703,7 +8323,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7720,7 +8340,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7737,7 +8357,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7754,7 +8374,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7771,7 +8391,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7788,7 +8408,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7805,7 +8425,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7822,7 +8442,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7839,7 +8459,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7856,7 +8476,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7873,7 +8493,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7890,7 +8510,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7907,7 +8527,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7924,7 +8544,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7941,7 +8561,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7958,7 +8578,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7975,7 +8595,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7992,7 +8612,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -8009,7 +8629,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -8026,7 +8646,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -8043,7 +8663,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -8060,7 +8680,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -8077,7 +8697,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -8094,7 +8714,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -8111,7 +8731,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -8128,7 +8748,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -8145,7 +8765,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -8162,7 +8782,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -8179,7 +8799,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -8196,7 +8816,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -8213,7 +8833,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -8230,7 +8850,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -8247,7 +8867,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -8264,7 +8884,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -8281,7 +8901,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -8298,7 +8918,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -8315,7 +8935,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -8332,7 +8952,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -8349,7 +8969,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -8366,7 +8986,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -8383,7 +9003,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -8400,7 +9020,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -8417,7 +9037,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -8434,7 +9054,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -8451,7 +9071,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -8468,7 +9088,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -8485,7 +9105,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -8502,7 +9122,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -8519,7 +9139,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -8536,7 +9156,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8553,7 +9173,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8570,7 +9190,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8587,7 +9207,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8604,7 +9224,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8621,7 +9241,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8638,7 +9258,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8655,7 +9275,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8672,7 +9292,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8689,7 +9309,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8706,7 +9326,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8723,7 +9343,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8740,7 +9360,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8757,7 +9377,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8774,7 +9394,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8791,7 +9411,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8808,7 +9428,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8825,7 +9445,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8842,7 +9462,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8859,7 +9479,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8876,7 +9496,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8893,7 +9513,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8910,7 +9530,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8927,7 +9547,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8944,7 +9564,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8961,7 +9581,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8978,7 +9598,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8995,7 +9615,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -9012,7 +9632,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -9029,7 +9649,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -9046,7 +9666,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -9063,7 +9683,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -9080,7 +9700,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -9097,7 +9717,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -9114,7 +9734,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -9131,7 +9751,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -9148,7 +9768,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -9165,7 +9785,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -9182,7 +9802,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -9199,7 +9819,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -9216,7 +9836,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -9233,7 +9853,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -9250,7 +9870,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -9267,7 +9887,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -9284,7 +9904,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -9301,7 +9921,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -9318,7 +9938,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -9335,7 +9955,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -9352,7 +9972,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -9369,7 +9989,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -9386,7 +10006,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -9403,7 +10023,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -9420,7 +10040,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -9437,7 +10057,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -9454,7 +10074,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -9471,7 +10091,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -9488,7 +10108,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -9505,7 +10125,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -9522,7 +10142,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -9539,7 +10159,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9556,7 +10176,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9573,7 +10193,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9590,7 +10210,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9607,7 +10227,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9624,7 +10244,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9641,7 +10261,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9658,7 +10278,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9675,7 +10295,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9692,7 +10312,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9709,7 +10329,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9726,7 +10346,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9743,7 +10363,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9760,7 +10380,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9777,7 +10397,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9794,7 +10414,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9811,7 +10431,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -9828,7 +10448,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -9846,7 +10466,7 @@
       <c r="O302" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -9854,36 +10474,36 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N102 N303:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N103:N302">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C302" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C302" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D302" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D302" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
@@ -26,7 +26,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="593">
   <si>
     <t>description</t>
   </si>
@@ -1848,6 +1848,12 @@
   </si>
   <si>
     <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1861,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2048,8 +2054,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2221,8 +2328,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2586,6 +2846,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2593,7 +3179,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2730,52 +3316,100 @@
       <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="19" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3132,7 +3766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3824,7 +4458,7 @@
         <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="L10" t="s">
         <v>79</v>
@@ -3868,7 +4502,7 @@
         <v>348</v>
       </c>
       <c r="I11" t="s">
-        <v>444</v>
+        <v>592</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -3906,7 +4540,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>318</v>
+        <v>444</v>
       </c>
       <c r="L12" t="s">
         <v>478</v>
@@ -3944,7 +4578,7 @@
         <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L13" t="s">
         <v>382</v>
@@ -3979,7 +4613,7 @@
         <v>312</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -4014,7 +4648,7 @@
         <v>260</v>
       </c>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -4047,6 +4681,9 @@
       </c>
       <c r="H16" t="s">
         <v>261</v>
+      </c>
+      <c r="I16" t="s">
+        <v>321</v>
       </c>
       <c r="L16" t="s">
         <v>479</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
@@ -28,7 +28,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -46,15 +46,15 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="596">
   <si>
     <t>description</t>
   </si>
@@ -1854,6 +1854,15 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1861,7 +1870,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="77" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2155,8 +2164,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2481,8 +2692,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3172,6 +3689,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3179,7 +4348,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3364,52 +4533,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="35" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="47" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="48" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="51" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3764,7 +5029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3852,21 +5117,24 @@
         <v>389</v>
       </c>
       <c r="Z1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>406</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3902,7 +5170,7 @@
         <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>453</v>
+        <v>594</v>
       </c>
       <c r="L2" t="s">
         <v>311</v>
@@ -3947,21 +5215,24 @@
         <v>399</v>
       </c>
       <c r="Z2" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA2" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>168</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>173</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>180</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>424</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>491</v>
       </c>
     </row>
@@ -4033,21 +5304,24 @@
         <v>400</v>
       </c>
       <c r="Z3" t="s">
+        <v>559</v>
+      </c>
+      <c r="AA3" t="s">
         <v>96</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>169</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>174</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>357</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>181</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4116,21 +5390,24 @@
         <v>401</v>
       </c>
       <c r="Z4" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA4" t="s">
         <v>546</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>170</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>175</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>181</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>416</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4190,21 +5467,24 @@
         <v>352</v>
       </c>
       <c r="Z5" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA5" t="s">
         <v>543</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>171</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>556</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>182</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>417</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4234,7 +5514,7 @@
         <v>550</v>
       </c>
       <c r="K6" t="s">
-        <v>344</v>
+        <v>595</v>
       </c>
       <c r="L6" t="s">
         <v>454</v>
@@ -4261,21 +5541,24 @@
         <v>354</v>
       </c>
       <c r="Z6" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA6" t="s">
         <v>97</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>437</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>176</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>183</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>418</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4296,7 +5579,7 @@
         <v>439</v>
       </c>
       <c r="K7" t="s">
-        <v>526</v>
+        <v>344</v>
       </c>
       <c r="L7" t="s">
         <v>71</v>
@@ -4322,22 +5605,22 @@
       <c r="X7" t="s">
         <v>353</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>98</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>438</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>177</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>184</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>419</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>520</v>
       </c>
     </row>
@@ -4357,6 +5640,9 @@
       <c r="I8" t="s">
         <v>324</v>
       </c>
+      <c r="K8" t="s">
+        <v>526</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -4378,22 +5664,22 @@
       <c r="X8" t="s">
         <v>355</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>99</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>172</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>178</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>185</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>420</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>521</v>
       </c>
     </row>
@@ -4434,16 +5720,16 @@
       <c r="X9" t="s">
         <v>356</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>206</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>179</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>186</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4478,16 +5764,16 @@
       <c r="U10" t="s">
         <v>398</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>555</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>187</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4519,13 +5805,13 @@
       <c r="S11" t="s">
         <v>245</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4557,13 +5843,13 @@
       <c r="S12" t="s">
         <v>246</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>100</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>188</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4592,13 +5878,13 @@
       <c r="S13" t="s">
         <v>590</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>322</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>189</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>466</v>
       </c>
     </row>
@@ -4627,13 +5913,13 @@
       <c r="S14" t="s">
         <v>251</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>101</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>190</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4662,13 +5948,13 @@
       <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>563</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>191</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>493</v>
       </c>
     </row>
@@ -4697,13 +5983,13 @@
       <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>102</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>192</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>494</v>
       </c>
     </row>
@@ -4726,13 +6012,13 @@
       <c r="S17" t="s">
         <v>249</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>74</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>459</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4752,10 +6038,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>485</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>467</v>
       </c>
     </row>
@@ -4772,10 +6058,10 @@
       <c r="L19" t="s">
         <v>455</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>103</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>496</v>
       </c>
     </row>
@@ -4792,10 +6078,10 @@
       <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>104</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>497</v>
       </c>
     </row>
@@ -4812,10 +6098,10 @@
       <c r="L21" t="s">
         <v>83</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>105</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>498</v>
       </c>
     </row>
@@ -4832,10 +6118,10 @@
       <c r="L22" t="s">
         <v>545</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>106</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4852,10 +6138,10 @@
       <c r="L23" t="s">
         <v>462</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>486</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>523</v>
       </c>
     </row>
@@ -4872,10 +6158,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>107</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>524</v>
       </c>
     </row>
@@ -4892,16 +6178,16 @@
       <c r="L25" t="s">
         <v>384</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>533</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>558</v>
       </c>
       <c r="F26" t="s">
         <v>441</v>
@@ -4912,16 +6198,16 @@
       <c r="L26" t="s">
         <v>516</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>108</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
         <v>222</v>
@@ -4932,16 +6218,16 @@
       <c r="L27" t="s">
         <v>84</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>109</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
         <v>223</v>
@@ -4952,13 +6238,13 @@
       <c r="L28" t="s">
         <v>426</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
         <v>460</v>
@@ -4969,13 +6255,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>406</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
         <v>461</v>
@@ -4986,13 +6272,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="F31" t="s">
         <v>408</v>
@@ -5000,18 +6286,21 @@
       <c r="H31" t="s">
         <v>213</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>224</v>
+      </c>
       <c r="F32" t="s">
         <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5022,7 +6311,7 @@
       <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5033,7 +6322,7 @@
       <c r="H34" t="s">
         <v>501</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5044,7 +6333,7 @@
       <c r="H35" t="s">
         <v>256</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5055,7 +6344,7 @@
       <c r="H36" t="s">
         <v>326</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5066,7 +6355,7 @@
       <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5077,7 +6366,7 @@
       <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5088,7 +6377,7 @@
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5096,7 +6385,7 @@
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5104,7 +6393,7 @@
       <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5112,7 +6401,7 @@
       <c r="H42" t="s">
         <v>209</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>544</v>
       </c>
     </row>
@@ -5120,7 +6409,7 @@
       <c r="H43" t="s">
         <v>530</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5128,7 +6417,7 @@
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5136,7 +6425,7 @@
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5144,7 +6433,7 @@
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5152,7 +6441,7 @@
       <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5160,7 +6449,7 @@
       <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5168,7 +6457,7 @@
       <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5176,7 +6465,7 @@
       <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5184,7 +6473,7 @@
       <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5192,7 +6481,7 @@
       <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5200,7 +6489,7 @@
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>527</v>
       </c>
     </row>
@@ -5208,7 +6497,7 @@
       <c r="H54" t="s">
         <v>349</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5216,7 +6505,7 @@
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5224,7 +6513,7 @@
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5232,7 +6521,7 @@
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5240,7 +6529,7 @@
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5248,7 +6537,7 @@
       <c r="H59" t="s">
         <v>531</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5256,7 +6545,7 @@
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5264,7 +6553,7 @@
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5272,7 +6561,7 @@
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5280,7 +6569,7 @@
       <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5288,7 +6577,7 @@
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5296,7 +6585,7 @@
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5304,7 +6593,7 @@
       <c r="H66" t="s">
         <v>362</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5312,7 +6601,7 @@
       <c r="H67" t="s">
         <v>363</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5320,7 +6609,7 @@
       <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5328,7 +6617,7 @@
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5336,7 +6625,7 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5344,7 +6633,7 @@
       <c r="H71" t="s">
         <v>517</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5352,7 +6641,7 @@
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5360,7 +6649,7 @@
       <c r="H73" t="s">
         <v>402</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5368,7 +6657,7 @@
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5376,7 +6665,7 @@
       <c r="H75" t="s">
         <v>403</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5384,7 +6673,7 @@
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5392,7 +6681,7 @@
       <c r="H77" t="s">
         <v>502</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5400,7 +6689,7 @@
       <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5408,7 +6697,7 @@
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5416,7 +6705,7 @@
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5424,7 +6713,7 @@
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5432,7 +6721,7 @@
       <c r="H82" t="s">
         <v>421</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5440,7 +6729,7 @@
       <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5448,7 +6737,7 @@
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5456,7 +6745,7 @@
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5464,7 +6753,7 @@
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5472,7 +6761,7 @@
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5480,7 +6769,7 @@
       <c r="H88" t="s">
         <v>519</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5488,7 +6777,7 @@
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5496,7 +6785,7 @@
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>551</v>
       </c>
     </row>
@@ -5504,7 +6793,7 @@
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5512,7 +6801,7 @@
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5520,7 +6809,7 @@
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5528,7 +6817,7 @@
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5536,7 +6825,7 @@
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>537</v>
       </c>
     </row>
@@ -5544,7 +6833,7 @@
       <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>538</v>
       </c>
     </row>
@@ -5552,7 +6841,7 @@
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5560,237 +6849,237 @@
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>167</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C761FADC-C4E1-40EA-9173-D0FCFFF163A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C761FADC-C4E1-40EA-9173-D0FCFFF163A9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="repeatUntil" sheetId="5" r:id="rId2"/>
-    <sheet name="section_with_repeatUntil" sheetId="2" r:id="rId3"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="repeatUntil" r:id="rId2" sheetId="5"/>
+    <sheet name="section_with_repeatUntil" r:id="rId3" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -33,7 +33,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -41,7 +41,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -50,12 +50,13 @@
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="621">
   <si>
     <t>description</t>
   </si>
@@ -1909,13 +1910,44 @@
   </si>
   <si>
     <t>SECTION ends; myValue becomes 22</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2007,8 +2039,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2039,8 +2172,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2078,176 +2364,550 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="60">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="3" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="3" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="5" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="5" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2371,7 +3031,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2396,10 +3056,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2434,7 +3094,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2469,7 +3129,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2563,21 +3223,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2594,7 +3254,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2646,26 +3306,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG145"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2742,7 +3402,7 @@
         <v>389</v>
       </c>
       <c r="Z1" t="s">
-        <v>557</v>
+        <v>611</v>
       </c>
       <c r="AA1" t="s">
         <v>53</v>
@@ -2763,7 +3423,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>364</v>
       </c>
@@ -2822,7 +3482,7 @@
         <v>250</v>
       </c>
       <c r="T2" t="s">
-        <v>214</v>
+        <v>613</v>
       </c>
       <c r="U2" t="s">
         <v>390</v>
@@ -2840,7 +3500,7 @@
         <v>399</v>
       </c>
       <c r="Z2" t="s">
-        <v>560</v>
+        <v>615</v>
       </c>
       <c r="AA2" t="s">
         <v>95</v>
@@ -2861,7 +3521,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>447</v>
       </c>
@@ -2914,7 +3574,7 @@
         <v>237</v>
       </c>
       <c r="T3" t="s">
-        <v>215</v>
+        <v>614</v>
       </c>
       <c r="U3" t="s">
         <v>391</v>
@@ -2929,7 +3589,7 @@
         <v>400</v>
       </c>
       <c r="Z3" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="AA3" t="s">
         <v>96</v>
@@ -2950,7 +3610,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -3000,7 +3660,7 @@
         <v>238</v>
       </c>
       <c r="T4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U4" t="s">
         <v>392</v>
@@ -3015,7 +3675,7 @@
         <v>401</v>
       </c>
       <c r="Z4" t="s">
-        <v>561</v>
+        <v>617</v>
       </c>
       <c r="AA4" t="s">
         <v>545</v>
@@ -3036,7 +3696,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>538</v>
       </c>
@@ -3080,7 +3740,7 @@
         <v>239</v>
       </c>
       <c r="T5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U5" t="s">
         <v>393</v>
@@ -3091,9 +3751,6 @@
       <c r="X5" t="s">
         <v>352</v>
       </c>
-      <c r="Z5" t="s">
-        <v>559</v>
-      </c>
       <c r="AA5" t="s">
         <v>542</v>
       </c>
@@ -3113,7 +3770,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3157,7 +3814,7 @@
         <v>240</v>
       </c>
       <c r="T6" t="s">
-        <v>383</v>
+        <v>216</v>
       </c>
       <c r="U6" t="s">
         <v>394</v>
@@ -3165,9 +3822,6 @@
       <c r="X6" t="s">
         <v>354</v>
       </c>
-      <c r="Z6" t="s">
-        <v>563</v>
-      </c>
       <c r="AA6" t="s">
         <v>97</v>
       </c>
@@ -3187,7 +3841,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3222,7 +3876,7 @@
         <v>241</v>
       </c>
       <c r="T7" t="s">
-        <v>410</v>
+        <v>217</v>
       </c>
       <c r="U7" t="s">
         <v>395</v>
@@ -3249,7 +3903,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3283,6 +3937,9 @@
       <c r="S8" t="s">
         <v>242</v>
       </c>
+      <c r="T8" t="s">
+        <v>383</v>
+      </c>
       <c r="U8" t="s">
         <v>396</v>
       </c>
@@ -3308,7 +3965,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3339,6 +3996,9 @@
       <c r="S9" t="s">
         <v>243</v>
       </c>
+      <c r="T9" t="s">
+        <v>410</v>
+      </c>
       <c r="U9" t="s">
         <v>397</v>
       </c>
@@ -3358,7 +4018,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3402,7 +4062,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>343</v>
       </c>
@@ -3440,7 +4100,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3460,7 +4120,7 @@
         <v>527</v>
       </c>
       <c r="O12" t="s">
-        <v>512</v>
+        <v>612</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -3478,7 +4138,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -3497,6 +4157,9 @@
       <c r="N13" t="s">
         <v>428</v>
       </c>
+      <c r="O13" t="s">
+        <v>512</v>
+      </c>
       <c r="R13" t="s">
         <v>93</v>
       </c>
@@ -3513,7 +4176,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3548,7 +4211,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>498</v>
       </c>
@@ -3574,7 +4237,7 @@
         <v>247</v>
       </c>
       <c r="AA15" t="s">
-        <v>562</v>
+        <v>618</v>
       </c>
       <c r="AD15" t="s">
         <v>191</v>
@@ -3583,7 +4246,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>468</v>
       </c>
@@ -3609,7 +4272,7 @@
         <v>248</v>
       </c>
       <c r="AA16" t="s">
-        <v>102</v>
+        <v>562</v>
       </c>
       <c r="AD16" t="s">
         <v>192</v>
@@ -3618,7 +4281,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -3638,7 +4301,7 @@
         <v>249</v>
       </c>
       <c r="AA17" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="AD17" t="s">
         <v>458</v>
@@ -3647,7 +4310,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3664,13 +4327,13 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>484</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -3684,13 +4347,13 @@
         <v>454</v>
       </c>
       <c r="AA19" t="s">
-        <v>103</v>
+        <v>484</v>
       </c>
       <c r="AF19" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -3704,13 +4367,13 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF20" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>388</v>
       </c>
@@ -3724,13 +4387,13 @@
         <v>83</v>
       </c>
       <c r="AA21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF21" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>404</v>
       </c>
@@ -3744,13 +4407,13 @@
         <v>544</v>
       </c>
       <c r="AA22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF22" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>405</v>
       </c>
@@ -3764,13 +4427,13 @@
         <v>461</v>
       </c>
       <c r="AA23" t="s">
-        <v>485</v>
+        <v>106</v>
       </c>
       <c r="AF23" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>350</v>
       </c>
@@ -3784,13 +4447,13 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>107</v>
+        <v>485</v>
       </c>
       <c r="AF24" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>389</v>
       </c>
@@ -3804,15 +4467,15 @@
         <v>384</v>
       </c>
       <c r="AA25" t="s">
-        <v>532</v>
+        <v>107</v>
       </c>
       <c r="AF25" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
-        <v>557</v>
+        <v>611</v>
       </c>
       <c r="F26" t="s">
         <v>441</v>
@@ -3824,13 +4487,13 @@
         <v>515</v>
       </c>
       <c r="AA26" t="s">
-        <v>108</v>
+        <v>532</v>
       </c>
       <c r="AF26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -3844,13 +4507,13 @@
         <v>84</v>
       </c>
       <c r="AA27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF27" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -3864,10 +4527,10 @@
         <v>426</v>
       </c>
       <c r="AA28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -3881,10 +4544,10 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -3898,10 +4561,10 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>406</v>
       </c>
@@ -3912,10 +4575,10 @@
         <v>213</v>
       </c>
       <c r="AA31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>224</v>
       </c>
@@ -3926,10 +4589,10 @@
         <v>271</v>
       </c>
       <c r="AA32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="F33" t="s">
         <v>64</v>
       </c>
@@ -3937,10 +4600,10 @@
         <v>281</v>
       </c>
       <c r="AA33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="F34" t="s">
         <v>65</v>
       </c>
@@ -3948,10 +4611,10 @@
         <v>500</v>
       </c>
       <c r="AA34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="F35" t="s">
         <v>66</v>
       </c>
@@ -3959,10 +4622,10 @@
         <v>256</v>
       </c>
       <c r="AA35" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="F36" t="s">
         <v>67</v>
       </c>
@@ -3970,10 +4633,10 @@
         <v>326</v>
       </c>
       <c r="AA36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="F37" t="s">
         <v>68</v>
       </c>
@@ -3981,10 +4644,10 @@
         <v>303</v>
       </c>
       <c r="AA37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="F38" t="s">
         <v>69</v>
       </c>
@@ -3992,10 +4655,10 @@
         <v>257</v>
       </c>
       <c r="AA38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="F39" t="s">
         <v>70</v>
       </c>
@@ -4003,742 +4666,747 @@
         <v>304</v>
       </c>
       <c r="AA39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="H40" t="s">
         <v>263</v>
       </c>
       <c r="AA40" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="H41" t="s">
         <v>77</v>
       </c>
       <c r="AA41" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="H42" t="s">
         <v>209</v>
       </c>
       <c r="AA42" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="H43" t="s">
         <v>529</v>
       </c>
       <c r="AA43" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="H44" t="s">
         <v>285</v>
       </c>
       <c r="AA44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="H45" t="s">
         <v>296</v>
       </c>
       <c r="AA45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="H46" t="s">
         <v>297</v>
       </c>
       <c r="AA46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="H47" t="s">
         <v>339</v>
       </c>
       <c r="AA47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="H48" t="s">
         <v>338</v>
       </c>
       <c r="AA48" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="H49" t="s">
         <v>208</v>
       </c>
       <c r="AA49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="H50" t="s">
         <v>316</v>
       </c>
       <c r="AA50" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="H51" t="s">
         <v>335</v>
       </c>
       <c r="AA51" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="H52" t="s">
         <v>361</v>
       </c>
       <c r="AA52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="H53" t="s">
         <v>298</v>
       </c>
       <c r="AA53" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="H54" t="s">
         <v>349</v>
       </c>
       <c r="AA54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="H55" t="s">
         <v>327</v>
       </c>
       <c r="AA55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="H56" t="s">
         <v>264</v>
       </c>
       <c r="AA56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="H57" t="s">
         <v>288</v>
       </c>
       <c r="AA57" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="H58" t="s">
         <v>289</v>
       </c>
       <c r="AA58" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="H59" t="s">
         <v>530</v>
       </c>
       <c r="AA59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="H60" t="s">
         <v>290</v>
       </c>
       <c r="AA60" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="H61" t="s">
         <v>299</v>
       </c>
       <c r="AA61" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="H62" t="s">
         <v>308</v>
       </c>
       <c r="AA62" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="H63" t="s">
         <v>333</v>
       </c>
       <c r="AA63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="H64" t="s">
         <v>305</v>
       </c>
       <c r="AA64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="H65" t="s">
         <v>306</v>
       </c>
       <c r="AA65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="H66" t="s">
         <v>362</v>
       </c>
       <c r="AA66" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="H67" t="s">
         <v>363</v>
       </c>
       <c r="AA67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="H68" t="s">
         <v>341</v>
       </c>
       <c r="AA68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="H69" t="s">
         <v>309</v>
       </c>
       <c r="AA69" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="H70" t="s">
         <v>265</v>
       </c>
       <c r="AA70" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="H71" t="s">
         <v>516</v>
       </c>
       <c r="AA71" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="H72" t="s">
         <v>310</v>
       </c>
       <c r="AA72" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="H73" t="s">
         <v>402</v>
       </c>
       <c r="AA73" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="H74" t="s">
         <v>300</v>
       </c>
       <c r="AA74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="H75" t="s">
         <v>403</v>
       </c>
       <c r="AA75" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="H76" t="s">
         <v>258</v>
       </c>
       <c r="AA76" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="H77" t="s">
         <v>501</v>
       </c>
       <c r="AA77" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="H78" t="s">
         <v>340</v>
       </c>
       <c r="AA78" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="H79" t="s">
         <v>276</v>
       </c>
       <c r="AA79" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>282</v>
       </c>
       <c r="AA80" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>287</v>
       </c>
       <c r="AA81" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>421</v>
       </c>
       <c r="AA82" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>328</v>
       </c>
       <c r="AA83" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>266</v>
       </c>
       <c r="AA84" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>277</v>
       </c>
       <c r="AA85" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>283</v>
       </c>
       <c r="AA86" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>272</v>
       </c>
       <c r="AA87" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>518</v>
       </c>
       <c r="AA88" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>267</v>
       </c>
       <c r="AA89" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>284</v>
       </c>
       <c r="AA90" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>268</v>
       </c>
       <c r="AA91" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>269</v>
       </c>
       <c r="AA92" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>301</v>
       </c>
       <c r="AA93" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>307</v>
       </c>
       <c r="AA94" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>291</v>
       </c>
       <c r="AA95" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>336</v>
       </c>
       <c r="AA96" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>273</v>
       </c>
       <c r="AA97" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>274</v>
       </c>
       <c r="AA98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AA99" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AA100" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AA101" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AA102" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AA103" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AA104" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AA105" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AA108" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AA109" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AA110" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AA111" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AA112" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AA113" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
+    <row r="114">
+      <c r="AA114" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="115">
+      <c r="AA115" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="116">
+      <c r="AA116" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="117">
+      <c r="AA117" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="118">
+      <c r="AA118" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="119">
+      <c r="AA119" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="120">
+      <c r="AA120" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="121">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="122">
+      <c r="AA122" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="123">
+      <c r="AA123" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="124">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="125">
+      <c r="AA125" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="126">
+      <c r="AA126" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="127">
+      <c r="AA127" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="128">
+      <c r="AA128" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="129">
+      <c r="AA129" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="130">
+      <c r="AA130" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="131">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="132">
+      <c r="AA132" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="133">
+      <c r="AA133" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="AA134" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="AA135" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="136">
+      <c r="AA136" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="137">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="138">
+      <c r="AA138" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="139">
+      <c r="AA139" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="140">
+      <c r="AA140" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="141">
+      <c r="AA141" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
+    <row r="142">
+      <c r="AA142" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AA143" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="144">
+      <c r="AA144" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="145">
+      <c r="AA145" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705974CF-2910-48AC-A13F-B6709B620C68}">
-  <dimension ref="A1:O302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705974CF-2910-48AC-A13F-B6709B620C68}">
+  <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="15.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.875" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="23.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="38.875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="32.5" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="15.875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="15.875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -4769,7 +5437,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>565</v>
       </c>
@@ -4790,7 +5458,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4807,7 +5475,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
@@ -4852,7 +5520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>569</v>
       </c>
@@ -4879,7 +5547,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4902,7 +5570,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>572</v>
@@ -4929,7 +5597,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4954,7 +5622,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="30" t="s">
         <v>573</v>
@@ -4981,7 +5649,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="31" t="s">
         <v>574</v>
@@ -5008,7 +5676,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="30"/>
       <c r="C11" s="13" t="s">
@@ -5031,7 +5699,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="30"/>
       <c r="C12" s="13" t="s">
@@ -5054,7 +5722,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="30"/>
       <c r="C13" s="13" t="s">
@@ -5079,7 +5747,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
         <v>578</v>
@@ -5106,7 +5774,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>583</v>
@@ -5131,7 +5799,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -5154,7 +5822,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -5171,7 +5839,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -5188,7 +5856,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -5205,7 +5873,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -5222,7 +5890,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -5239,7 +5907,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -5256,7 +5924,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -5273,7 +5941,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -5290,7 +5958,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5307,7 +5975,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5324,7 +5992,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5341,7 +6009,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -5358,7 +6026,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5375,7 +6043,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="8"/>
       <c r="C30" s="13"/>
@@ -5392,7 +6060,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5409,7 +6077,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5426,7 +6094,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5443,7 +6111,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5460,7 +6128,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5477,7 +6145,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5494,7 +6162,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5511,7 +6179,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5528,7 +6196,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5545,7 +6213,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5562,7 +6230,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5579,7 +6247,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5596,7 +6264,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5613,7 +6281,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5630,7 +6298,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5647,7 +6315,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5664,7 +6332,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5681,7 +6349,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5698,7 +6366,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5715,7 +6383,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5732,7 +6400,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5749,7 +6417,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5766,7 +6434,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5783,7 +6451,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5800,7 +6468,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5817,7 +6485,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5834,7 +6502,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5851,7 +6519,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5868,7 +6536,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5885,7 +6553,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5902,7 +6570,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5919,7 +6587,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5936,7 +6604,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5953,7 +6621,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5970,7 +6638,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5987,7 +6655,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -6004,7 +6672,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -6021,7 +6689,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -6038,7 +6706,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -6055,7 +6723,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -6072,7 +6740,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -6089,7 +6757,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -6106,7 +6774,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -6123,7 +6791,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -6140,7 +6808,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -6157,7 +6825,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -6174,7 +6842,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -6191,7 +6859,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -6208,7 +6876,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -6225,7 +6893,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -6242,7 +6910,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -6259,7 +6927,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -6276,7 +6944,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -6293,7 +6961,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -6310,7 +6978,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6327,7 +6995,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6344,7 +7012,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6361,7 +7029,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6378,7 +7046,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6395,7 +7063,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6412,7 +7080,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6429,7 +7097,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6446,7 +7114,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6463,7 +7131,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6480,7 +7148,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6497,7 +7165,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6514,7 +7182,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6531,7 +7199,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6548,7 +7216,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6565,7 +7233,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6582,7 +7250,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -6599,7 +7267,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -6616,7 +7284,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -6633,7 +7301,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -6650,7 +7318,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -6667,7 +7335,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -6684,7 +7352,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -6701,7 +7369,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6718,7 +7386,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6735,7 +7403,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6752,7 +7420,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6769,7 +7437,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6786,7 +7454,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6803,7 +7471,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6820,7 +7488,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6837,7 +7505,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6854,7 +7522,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6871,7 +7539,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6888,7 +7556,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6905,7 +7573,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6922,7 +7590,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6939,7 +7607,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6956,7 +7624,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6973,7 +7641,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6990,7 +7658,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -7007,7 +7675,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -7024,7 +7692,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -7041,7 +7709,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -7058,7 +7726,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -7075,7 +7743,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -7092,7 +7760,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -7109,7 +7777,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -7126,7 +7794,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -7143,7 +7811,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -7160,7 +7828,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -7177,7 +7845,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -7194,7 +7862,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -7211,7 +7879,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -7228,7 +7896,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -7245,7 +7913,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -7262,7 +7930,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -7279,7 +7947,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -7296,7 +7964,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -7313,7 +7981,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -7330,7 +7998,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -7347,7 +8015,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -7364,7 +8032,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -7381,7 +8049,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -7398,7 +8066,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -7415,7 +8083,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -7432,7 +8100,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -7449,7 +8117,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -7466,7 +8134,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -7483,7 +8151,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -7500,7 +8168,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -7517,7 +8185,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -7534,7 +8202,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -7551,7 +8219,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -7568,7 +8236,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -7585,7 +8253,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -7602,7 +8270,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -7619,7 +8287,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -7636,7 +8304,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -7653,7 +8321,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -7670,7 +8338,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -7687,7 +8355,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -7704,7 +8372,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7721,7 +8389,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7738,7 +8406,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7755,7 +8423,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7772,7 +8440,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7789,7 +8457,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7806,7 +8474,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7823,7 +8491,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7840,7 +8508,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7857,7 +8525,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7874,7 +8542,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7891,7 +8559,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7908,7 +8576,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7925,7 +8593,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7942,7 +8610,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7959,7 +8627,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7976,7 +8644,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7993,7 +8661,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -8010,7 +8678,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -8027,7 +8695,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -8044,7 +8712,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -8061,7 +8729,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -8078,7 +8746,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -8095,7 +8763,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -8112,7 +8780,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -8129,7 +8797,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -8146,7 +8814,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -8163,7 +8831,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -8180,7 +8848,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -8197,7 +8865,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -8214,7 +8882,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -8231,7 +8899,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -8248,7 +8916,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -8265,7 +8933,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -8282,7 +8950,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -8299,7 +8967,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -8316,7 +8984,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -8333,7 +9001,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -8350,7 +9018,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -8367,7 +9035,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -8384,7 +9052,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -8401,7 +9069,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -8418,7 +9086,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -8435,7 +9103,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -8452,7 +9120,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -8469,7 +9137,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -8486,7 +9154,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -8503,7 +9171,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -8520,7 +9188,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -8537,7 +9205,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -8554,7 +9222,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -8571,7 +9239,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -8588,7 +9256,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -8605,7 +9273,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -8622,7 +9290,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -8639,7 +9307,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -8656,7 +9324,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -8673,7 +9341,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -8690,7 +9358,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -8707,7 +9375,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8724,7 +9392,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8741,7 +9409,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8758,7 +9426,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8775,7 +9443,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8792,7 +9460,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8809,7 +9477,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8826,7 +9494,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8843,7 +9511,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8860,7 +9528,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8877,7 +9545,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8894,7 +9562,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8911,7 +9579,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8928,7 +9596,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8945,7 +9613,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8962,7 +9630,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8979,7 +9647,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8996,7 +9664,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -9013,7 +9681,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -9030,7 +9698,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -9047,7 +9715,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -9064,7 +9732,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -9081,7 +9749,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -9098,7 +9766,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -9115,7 +9783,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -9132,7 +9800,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -9149,7 +9817,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -9166,7 +9834,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -9183,7 +9851,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -9200,7 +9868,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -9217,7 +9885,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -9234,7 +9902,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -9251,7 +9919,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -9268,7 +9936,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -9285,7 +9953,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -9302,7 +9970,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -9319,7 +9987,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -9336,7 +10004,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -9353,7 +10021,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -9370,7 +10038,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -9387,7 +10055,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -9404,7 +10072,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -9421,7 +10089,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -9438,7 +10106,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -9455,7 +10123,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -9472,7 +10140,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -9489,7 +10157,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -9506,7 +10174,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -9523,7 +10191,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -9540,7 +10208,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -9557,7 +10225,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -9574,7 +10242,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -9591,7 +10259,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -9608,7 +10276,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -9625,7 +10293,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -9642,7 +10310,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -9659,7 +10327,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -9676,7 +10344,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -9693,7 +10361,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -9710,7 +10378,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9727,7 +10395,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9744,7 +10412,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9761,7 +10429,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9778,7 +10446,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9795,7 +10463,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9812,7 +10480,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9829,7 +10497,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9846,7 +10514,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9863,7 +10531,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9880,7 +10548,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9897,7 +10565,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9914,7 +10582,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9931,7 +10599,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9948,7 +10616,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9965,7 +10633,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9982,7 +10650,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -9999,7 +10667,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -10017,7 +10685,7 @@
       <c r="O302" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10025,66 +10693,66 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N102 N303:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N103:N302">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D302" xr:uid="{959EFC4E-A901-4C8F-B073-495FB10E1193}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D302" type="list" xr:uid="{959EFC4E-A901-4C8F-B073-495FB10E1193}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C302" xr:uid="{850BEA9D-541D-4516-9267-C0D60CA2D6C5}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C302" type="list" xr:uid="{850BEA9D-541D-4516-9267-C0D60CA2D6C5}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="15.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="30.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="38.875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="32.5" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="15.875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="27.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -10115,7 +10783,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>565</v>
       </c>
@@ -10136,7 +10804,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -10153,7 +10821,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
@@ -10198,7 +10866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>593</v>
       </c>
@@ -10225,7 +10893,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -10250,7 +10918,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="41" t="s">
         <v>605</v>
@@ -10277,7 +10945,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="40" t="s">
         <v>609</v>
@@ -10304,7 +10972,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="42" t="s">
         <v>600</v>
@@ -10331,7 +10999,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="43"/>
       <c r="C10" s="13" t="s">
@@ -10356,7 +11024,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="42"/>
       <c r="C11" s="13" t="s">
@@ -10379,7 +11047,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="42" t="s">
         <v>604</v>
@@ -10406,7 +11074,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="41" t="s">
         <v>610</v>
@@ -10433,7 +11101,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
         <v>607</v>
@@ -10460,7 +11128,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -10477,7 +11145,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -10494,7 +11162,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -10511,7 +11179,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -10528,7 +11196,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -10545,7 +11213,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -10562,7 +11230,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -10579,7 +11247,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -10596,7 +11264,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -10613,7 +11281,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -10630,7 +11298,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -10647,7 +11315,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -10664,7 +11332,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -10681,7 +11349,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -10698,7 +11366,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -10715,7 +11383,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="8"/>
       <c r="C30" s="13"/>
@@ -10732,7 +11400,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -10749,7 +11417,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -10766,7 +11434,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -10783,7 +11451,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -10800,7 +11468,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -10817,7 +11485,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -10834,7 +11502,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -10851,7 +11519,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -10868,7 +11536,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -10885,7 +11553,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -10902,7 +11570,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -10919,7 +11587,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -10936,7 +11604,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -10953,7 +11621,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -10970,7 +11638,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -10987,7 +11655,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -11004,7 +11672,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -11021,7 +11689,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -11038,7 +11706,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -11055,7 +11723,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -11072,7 +11740,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -11089,7 +11757,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -11106,7 +11774,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -11123,7 +11791,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -11140,7 +11808,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -11157,7 +11825,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -11174,7 +11842,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -11191,7 +11859,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -11208,7 +11876,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -11225,7 +11893,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -11242,7 +11910,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -11259,7 +11927,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -11276,7 +11944,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -11293,7 +11961,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -11310,7 +11978,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -11327,7 +11995,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -11344,7 +12012,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -11361,7 +12029,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -11378,7 +12046,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -11395,7 +12063,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -11412,7 +12080,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -11429,7 +12097,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -11446,7 +12114,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -11463,7 +12131,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -11480,7 +12148,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -11497,7 +12165,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -11514,7 +12182,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -11531,7 +12199,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -11548,7 +12216,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -11565,7 +12233,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -11582,7 +12250,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -11599,7 +12267,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -11616,7 +12284,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -11633,7 +12301,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -11650,7 +12318,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -11667,7 +12335,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -11684,7 +12352,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -11701,7 +12369,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -11718,7 +12386,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -11735,7 +12403,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -11752,7 +12420,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -11769,7 +12437,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -11786,7 +12454,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -11803,7 +12471,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -11820,7 +12488,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -11837,7 +12505,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -11854,7 +12522,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -11871,7 +12539,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -11888,7 +12556,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -11905,7 +12573,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -11922,7 +12590,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -11939,7 +12607,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -11956,7 +12624,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -11973,7 +12641,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -11990,7 +12658,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -12007,7 +12675,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -12024,7 +12692,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -12041,7 +12709,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -12058,7 +12726,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -12075,7 +12743,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -12092,7 +12760,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -12109,7 +12777,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -12126,7 +12794,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -12143,7 +12811,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -12160,7 +12828,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -12177,7 +12845,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -12194,7 +12862,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -12211,7 +12879,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -12228,7 +12896,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -12245,7 +12913,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -12262,7 +12930,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -12279,7 +12947,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -12296,7 +12964,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -12313,7 +12981,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -12330,7 +12998,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -12347,7 +13015,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -12364,7 +13032,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -12381,7 +13049,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -12398,7 +13066,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -12415,7 +13083,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -12432,7 +13100,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -12449,7 +13117,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -12466,7 +13134,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -12483,7 +13151,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -12500,7 +13168,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -12517,7 +13185,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -12534,7 +13202,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -12551,7 +13219,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -12568,7 +13236,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -12585,7 +13253,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -12602,7 +13270,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -12619,7 +13287,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -12636,7 +13304,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -12653,7 +13321,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -12670,7 +13338,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -12687,7 +13355,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -12704,7 +13372,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -12721,7 +13389,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -12738,7 +13406,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -12755,7 +13423,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -12772,7 +13440,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -12789,7 +13457,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -12806,7 +13474,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -12823,7 +13491,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -12840,7 +13508,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -12857,7 +13525,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -12874,7 +13542,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -12891,7 +13559,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -12908,7 +13576,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -12925,7 +13593,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -12942,7 +13610,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -12959,7 +13627,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -12976,7 +13644,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -12993,7 +13661,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -13010,7 +13678,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -13027,7 +13695,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -13044,7 +13712,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -13061,7 +13729,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -13078,7 +13746,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -13095,7 +13763,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -13112,7 +13780,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -13129,7 +13797,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -13146,7 +13814,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -13163,7 +13831,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -13180,7 +13848,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -13197,7 +13865,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -13214,7 +13882,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -13231,7 +13899,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -13248,7 +13916,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -13265,7 +13933,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -13282,7 +13950,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -13299,7 +13967,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -13316,7 +13984,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -13333,7 +14001,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -13350,7 +14018,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -13367,7 +14035,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -13384,7 +14052,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -13401,7 +14069,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -13418,7 +14086,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -13435,7 +14103,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -13452,7 +14120,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -13469,7 +14137,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -13486,7 +14154,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -13503,7 +14171,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -13520,7 +14188,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -13537,7 +14205,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -13554,7 +14222,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -13571,7 +14239,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -13588,7 +14256,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -13605,7 +14273,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -13622,7 +14290,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -13639,7 +14307,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -13656,7 +14324,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -13673,7 +14341,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -13690,7 +14358,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -13707,7 +14375,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -13724,7 +14392,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -13741,7 +14409,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -13758,7 +14426,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -13775,7 +14443,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -13792,7 +14460,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -13809,7 +14477,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -13826,7 +14494,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -13843,7 +14511,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -13860,7 +14528,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -13877,7 +14545,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -13894,7 +14562,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -13911,7 +14579,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -13928,7 +14596,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -13945,7 +14613,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -13962,7 +14630,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -13979,7 +14647,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -13996,7 +14664,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -14013,7 +14681,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -14030,7 +14698,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -14047,7 +14715,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -14064,7 +14732,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -14081,7 +14749,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -14098,7 +14766,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -14115,7 +14783,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -14132,7 +14800,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -14149,7 +14817,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -14166,7 +14834,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -14183,7 +14851,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -14200,7 +14868,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -14217,7 +14885,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -14234,7 +14902,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -14251,7 +14919,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -14268,7 +14936,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -14285,7 +14953,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -14302,7 +14970,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -14319,7 +14987,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -14336,7 +15004,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -14353,7 +15021,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -14370,7 +15038,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -14387,7 +15055,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -14404,7 +15072,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -14421,7 +15089,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -14438,7 +15106,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -14455,7 +15123,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -14472,7 +15140,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -14489,7 +15157,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -14506,7 +15174,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -14523,7 +15191,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -14540,7 +15208,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -14557,7 +15225,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -14574,7 +15242,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -14591,7 +15259,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -14608,7 +15276,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -14625,7 +15293,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -14642,7 +15310,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -14659,7 +15327,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -14676,7 +15344,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -14693,7 +15361,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -14710,7 +15378,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -14727,7 +15395,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -14744,7 +15412,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -14761,7 +15429,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -14778,7 +15446,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -14795,7 +15463,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -14812,7 +15480,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -14829,7 +15497,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -14846,7 +15514,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -14863,7 +15531,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -14880,7 +15548,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -14897,7 +15565,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -14914,7 +15582,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -14931,7 +15599,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -14948,7 +15616,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -14965,7 +15633,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -14982,7 +15650,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -14999,7 +15667,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -15016,7 +15684,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -15033,7 +15701,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -15050,7 +15718,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -15067,7 +15735,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -15084,7 +15752,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -15101,7 +15769,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -15118,7 +15786,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -15135,7 +15803,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -15152,7 +15820,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -15169,7 +15837,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -15186,7 +15854,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -15203,7 +15871,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -15220,7 +15888,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -15237,7 +15905,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -15254,7 +15922,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -15271,7 +15939,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -15288,7 +15956,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -15305,7 +15973,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -15322,7 +15990,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -15339,7 +16007,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -15357,7 +16025,7 @@
       <c r="O302" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15365,36 +16033,36 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N102 N303:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N103:N302">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C302" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C302" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D302" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D302" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
@@ -22,7 +22,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -30,7 +30,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -40,22 +40,22 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="671">
   <si>
     <t>description</t>
   </si>
@@ -1940,6 +1940,156 @@
   </si>
   <si>
     <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +2097,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2140,8 +2290,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="81">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2323,6 +2687,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2697,7 +3333,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2854,52 +3490,154 @@
       <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="8" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="11" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="14" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="17" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="20" fontId="19" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="23" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="14" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="26" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="26" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="32" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="35" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="38" fontId="31" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="32" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="47" fontId="35" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="50" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="53" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="56" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="53" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="62" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="74" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="77" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="80" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="77" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3314,9 +4052,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG145"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3405,21 +4143,24 @@
         <v>611</v>
       </c>
       <c r="AA1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>406</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3503,21 +4244,24 @@
         <v>615</v>
       </c>
       <c r="AA2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB2" t="s">
         <v>95</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>168</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>173</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>180</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>424</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -3592,21 +4336,24 @@
         <v>616</v>
       </c>
       <c r="AA3" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB3" t="s">
         <v>96</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>169</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>174</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>357</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>181</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3678,21 +4425,24 @@
         <v>617</v>
       </c>
       <c r="AA4" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB4" t="s">
         <v>545</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>170</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>175</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>181</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>416</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3752,21 +4502,24 @@
         <v>352</v>
       </c>
       <c r="AA5" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB5" t="s">
         <v>542</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>171</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>555</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>182</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>417</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3823,21 +4576,24 @@
         <v>354</v>
       </c>
       <c r="AA6" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB6" t="s">
         <v>97</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>437</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>176</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>183</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>418</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3885,21 +4641,24 @@
         <v>353</v>
       </c>
       <c r="AA7" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB7" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>438</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>177</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>184</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>419</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>519</v>
       </c>
     </row>
@@ -3947,21 +4706,24 @@
         <v>355</v>
       </c>
       <c r="AA8" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB8" t="s">
         <v>99</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>172</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>178</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>185</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>420</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>520</v>
       </c>
     </row>
@@ -4006,15 +4768,18 @@
         <v>356</v>
       </c>
       <c r="AA9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB9" t="s">
         <v>206</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>179</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>186</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>521</v>
       </c>
     </row>
@@ -4050,15 +4815,18 @@
         <v>398</v>
       </c>
       <c r="AA10" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>554</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>187</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4088,15 +4856,18 @@
         <v>92</v>
       </c>
       <c r="S11" t="s">
-        <v>245</v>
+        <v>627</v>
       </c>
       <c r="AA11" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB11" t="s">
         <v>254</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>255</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4126,15 +4897,18 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA12" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB12" t="s">
         <v>100</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>188</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4164,15 +4938,18 @@
         <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>588</v>
+        <v>246</v>
       </c>
       <c r="AA13" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB13" t="s">
         <v>322</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>189</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>465</v>
       </c>
     </row>
@@ -4199,15 +4976,18 @@
         <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>251</v>
+        <v>588</v>
       </c>
       <c r="AA14" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB14" t="s">
         <v>101</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>190</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>491</v>
       </c>
     </row>
@@ -4234,15 +5014,18 @@
         <v>482</v>
       </c>
       <c r="S15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA15" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB15" t="s">
         <v>618</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>191</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4269,15 +5052,18 @@
         <v>483</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA16" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB16" t="s">
         <v>562</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>192</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -4298,15 +5084,18 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA17" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB17" t="s">
         <v>102</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>458</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -4326,10 +5115,16 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>249</v>
+      </c>
       <c r="AA18" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB18" t="s">
         <v>74</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>466</v>
       </c>
     </row>
@@ -4338,7 +5133,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>621</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -4347,9 +5142,12 @@
         <v>454</v>
       </c>
       <c r="AA19" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB19" t="s">
         <v>484</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4358,7 +5156,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>622</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -4367,9 +5165,12 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB20" t="s">
         <v>103</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>496</v>
       </c>
     </row>
@@ -4378,7 +5179,7 @@
         <v>388</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>623</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -4387,9 +5188,12 @@
         <v>83</v>
       </c>
       <c r="AA21" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB21" t="s">
         <v>104</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>497</v>
       </c>
     </row>
@@ -4398,7 +5202,7 @@
         <v>404</v>
       </c>
       <c r="F22" t="s">
-        <v>528</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -4407,9 +5211,12 @@
         <v>544</v>
       </c>
       <c r="AA22" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB22" t="s">
         <v>105</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4418,7 +5225,7 @@
         <v>405</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -4427,9 +5234,12 @@
         <v>461</v>
       </c>
       <c r="AA23" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB23" t="s">
         <v>106</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4438,7 +5248,7 @@
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -4447,9 +5257,12 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB24" t="s">
         <v>485</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>523</v>
       </c>
     </row>
@@ -4458,7 +5271,7 @@
         <v>389</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>624</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -4467,9 +5280,12 @@
         <v>384</v>
       </c>
       <c r="AA25" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB25" t="s">
         <v>107</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>524</v>
       </c>
     </row>
@@ -4478,234 +5294,294 @@
         <v>611</v>
       </c>
       <c r="F26" t="s">
-        <v>441</v>
+        <v>528</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>515</v>
+        <v>626</v>
       </c>
       <c r="AA26" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB26" t="s">
         <v>532</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>557</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>84</v>
+        <v>515</v>
       </c>
       <c r="AA27" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB27" t="s">
         <v>108</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>317</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>426</v>
+        <v>84</v>
       </c>
       <c r="AA28" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>459</v>
+        <v>62</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="AA29" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>654</v>
+      </c>
+      <c r="AB30" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>406</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>408</v>
+        <v>222</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>655</v>
+      </c>
+      <c r="AB31" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
       <c r="AA32" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>224</v>
+      </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>459</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
       </c>
       <c r="AA33" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB33" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>460</v>
       </c>
       <c r="H34" t="s">
         <v>500</v>
       </c>
       <c r="AA34" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>408</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
       </c>
       <c r="AA35" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
       </c>
       <c r="AA36" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB36" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
       </c>
       <c r="AA37" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
       </c>
       <c r="AA38" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>68</v>
+      </c>
       <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
       <c r="H42" t="s">
         <v>209</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>70</v>
+      </c>
       <c r="H43" t="s">
         <v>529</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>625</v>
+      </c>
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4713,7 +5589,7 @@
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4721,7 +5597,7 @@
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4729,7 +5605,7 @@
       <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4737,7 +5613,7 @@
       <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4745,7 +5621,7 @@
       <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4753,7 +5629,7 @@
       <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4761,7 +5637,7 @@
       <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>619</v>
       </c>
     </row>
@@ -4769,7 +5645,7 @@
       <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4777,7 +5653,7 @@
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4785,7 +5661,7 @@
       <c r="H54" t="s">
         <v>349</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4793,7 +5669,7 @@
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4801,7 +5677,7 @@
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4809,7 +5685,7 @@
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4817,7 +5693,7 @@
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4825,7 +5701,7 @@
       <c r="H59" t="s">
         <v>530</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>455</v>
       </c>
     </row>
@@ -4833,7 +5709,7 @@
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4841,7 +5717,7 @@
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4849,7 +5725,7 @@
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>456</v>
       </c>
     </row>
@@ -4857,7 +5733,7 @@
       <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4865,7 +5741,7 @@
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4873,7 +5749,7 @@
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4881,7 +5757,7 @@
       <c r="H66" t="s">
         <v>362</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4889,7 +5765,7 @@
       <c r="H67" t="s">
         <v>363</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4897,7 +5773,7 @@
       <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4905,7 +5781,7 @@
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4913,7 +5789,7 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>432</v>
       </c>
     </row>
@@ -4921,7 +5797,7 @@
       <c r="H71" t="s">
         <v>516</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4929,7 +5805,7 @@
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4937,7 +5813,7 @@
       <c r="H73" t="s">
         <v>402</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>381</v>
       </c>
     </row>
@@ -4945,7 +5821,7 @@
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4953,7 +5829,7 @@
       <c r="H75" t="s">
         <v>403</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4961,7 +5837,7 @@
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4969,7 +5845,7 @@
       <c r="H77" t="s">
         <v>501</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4977,7 +5853,7 @@
       <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4985,395 +5861,425 @@
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="AA79" t="s">
-        <v>194</v>
+      <c r="AB79" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="AA80" t="s">
-        <v>195</v>
+      <c r="AB80" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="AA81" t="s">
-        <v>445</v>
+      <c r="AB81" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>421</v>
       </c>
-      <c r="AA82" t="s">
-        <v>457</v>
+      <c r="AB82" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="AA83" t="s">
-        <v>140</v>
+      <c r="AB83" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="AA84" t="s">
-        <v>141</v>
+      <c r="AB84" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="AA85" t="s">
-        <v>142</v>
+      <c r="AB85" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="AA86" t="s">
-        <v>487</v>
+      <c r="AB86" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="AA87" t="s">
-        <v>143</v>
+      <c r="AB87" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>518</v>
       </c>
-      <c r="AA88" t="s">
-        <v>144</v>
+      <c r="AB88" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="AA89" t="s">
-        <v>196</v>
+      <c r="AB89" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="AA90" t="s">
-        <v>488</v>
+      <c r="AB90" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="AA91" t="s">
-        <v>550</v>
+      <c r="AB91" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="AA92" t="s">
-        <v>197</v>
+      <c r="AB92" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="AA93" t="s">
-        <v>446</v>
+      <c r="AB93" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="AA94" t="s">
-        <v>198</v>
+      <c r="AB94" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="AA95" t="s">
-        <v>199</v>
+      <c r="AB95" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="AA96" t="s">
-        <v>536</v>
+      <c r="AB96" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="AA97" t="s">
-        <v>537</v>
+      <c r="AB97" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="99">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="100">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="101">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="102">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="103">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="104">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="105">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="106">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="107">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="108">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="109">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="110">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="111">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
-        <v>540</v>
-      </c>
-    </row>
     <row r="114">
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="119">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -5385,7 +6291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705974CF-2910-48AC-A13F-B6709B620C68}">
   <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
@@ -22,13 +22,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -47,15 +47,15 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="673">
   <si>
     <t>description</t>
   </si>
@@ -2090,6 +2090,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="80" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2504,8 +2510,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="81">
+  <fills count="105">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2687,6 +2800,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3333,7 +3582,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3589,55 +3838,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="53" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="59" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="62" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="62" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="65" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="71" fontId="52" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="74" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="74" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="77" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="77" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="65" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="80" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="80" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="77" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="77" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="86" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="89" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="92" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="98" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="101" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="89" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="92" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="92" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="101" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4052,7 +4352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4143,24 +4443,21 @@
         <v>611</v>
       </c>
       <c r="AA1" t="s">
-        <v>557</v>
+        <v>53</v>
       </c>
       <c r="AB1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE1" t="s">
-        <v>56</v>
+        <v>406</v>
       </c>
       <c r="AF1" t="s">
-        <v>406</v>
-      </c>
-      <c r="AG1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4193,7 +4490,7 @@
         <v>442</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>672</v>
       </c>
       <c r="K2" t="s">
         <v>591</v>
@@ -4244,24 +4541,21 @@
         <v>615</v>
       </c>
       <c r="AA2" t="s">
-        <v>628</v>
+        <v>95</v>
       </c>
       <c r="AB2" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AC2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AD2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AE2" t="s">
-        <v>180</v>
+        <v>424</v>
       </c>
       <c r="AF2" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4291,7 +4585,7 @@
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
         <v>345</v>
@@ -4336,24 +4630,21 @@
         <v>616</v>
       </c>
       <c r="AA3" t="s">
-        <v>629</v>
+        <v>96</v>
       </c>
       <c r="AB3" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AC3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD3" t="s">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="AE3" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="AF3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4380,7 +4671,7 @@
         <v>443</v>
       </c>
       <c r="J4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K4" t="s">
         <v>346</v>
@@ -4425,24 +4716,21 @@
         <v>617</v>
       </c>
       <c r="AA4" t="s">
-        <v>630</v>
+        <v>545</v>
       </c>
       <c r="AB4" t="s">
-        <v>545</v>
+        <v>170</v>
       </c>
       <c r="AC4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AD4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AE4" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="AF4" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4469,7 +4757,7 @@
         <v>452</v>
       </c>
       <c r="J5" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="K5" t="s">
         <v>347</v>
@@ -4502,24 +4790,21 @@
         <v>352</v>
       </c>
       <c r="AA5" t="s">
-        <v>631</v>
+        <v>542</v>
       </c>
       <c r="AB5" t="s">
-        <v>542</v>
+        <v>171</v>
       </c>
       <c r="AC5" t="s">
-        <v>171</v>
+        <v>555</v>
       </c>
       <c r="AD5" t="s">
-        <v>555</v>
+        <v>182</v>
       </c>
       <c r="AE5" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="AF5" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4546,7 +4831,7 @@
         <v>440</v>
       </c>
       <c r="J6" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="K6" t="s">
         <v>592</v>
@@ -4576,24 +4861,21 @@
         <v>354</v>
       </c>
       <c r="AA6" t="s">
-        <v>632</v>
+        <v>97</v>
       </c>
       <c r="AB6" t="s">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="AC6" t="s">
-        <v>437</v>
+        <v>176</v>
       </c>
       <c r="AD6" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AE6" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="AF6" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4613,6 +4895,9 @@
       <c r="I7" t="s">
         <v>439</v>
       </c>
+      <c r="J7" t="s">
+        <v>549</v>
+      </c>
       <c r="K7" t="s">
         <v>344</v>
       </c>
@@ -4641,24 +4926,21 @@
         <v>353</v>
       </c>
       <c r="AA7" t="s">
-        <v>633</v>
+        <v>98</v>
       </c>
       <c r="AB7" t="s">
-        <v>98</v>
+        <v>438</v>
       </c>
       <c r="AC7" t="s">
-        <v>438</v>
+        <v>177</v>
       </c>
       <c r="AD7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE7" t="s">
-        <v>184</v>
+        <v>419</v>
       </c>
       <c r="AF7" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG7" t="s">
         <v>519</v>
       </c>
     </row>
@@ -4706,24 +4988,21 @@
         <v>355</v>
       </c>
       <c r="AA8" t="s">
-        <v>634</v>
+        <v>99</v>
       </c>
       <c r="AB8" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="AC8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AD8" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AE8" t="s">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="AF8" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG8" t="s">
         <v>520</v>
       </c>
     </row>
@@ -4768,18 +5047,15 @@
         <v>356</v>
       </c>
       <c r="AA9" t="s">
-        <v>635</v>
-      </c>
-      <c r="AB9" t="s">
         <v>206</v>
       </c>
+      <c r="AC9" t="s">
+        <v>179</v>
+      </c>
       <c r="AD9" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE9" t="s">
         <v>186</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>521</v>
       </c>
     </row>
@@ -4815,18 +5091,15 @@
         <v>398</v>
       </c>
       <c r="AA10" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB10" t="s">
         <v>253</v>
       </c>
+      <c r="AC10" t="s">
+        <v>554</v>
+      </c>
       <c r="AD10" t="s">
-        <v>554</v>
-      </c>
-      <c r="AE10" t="s">
         <v>187</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4835,7 +5108,7 @@
         <v>343</v>
       </c>
       <c r="F11" t="s">
-        <v>541</v>
+        <v>671</v>
       </c>
       <c r="H11" t="s">
         <v>348</v>
@@ -4859,15 +5132,12 @@
         <v>627</v>
       </c>
       <c r="AA11" t="s">
-        <v>637</v>
-      </c>
-      <c r="AB11" t="s">
         <v>254</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>255</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4876,7 +5146,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>315</v>
+        <v>541</v>
       </c>
       <c r="H12" t="s">
         <v>270</v>
@@ -4900,15 +5170,12 @@
         <v>245</v>
       </c>
       <c r="AA12" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB12" t="s">
         <v>100</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>188</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4917,7 +5184,7 @@
         <v>329</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="H13" t="s">
         <v>259</v>
@@ -4941,15 +5208,12 @@
         <v>246</v>
       </c>
       <c r="AA13" t="s">
-        <v>639</v>
-      </c>
-      <c r="AB13" t="s">
         <v>322</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>189</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>465</v>
       </c>
     </row>
@@ -4958,7 +5222,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>337</v>
       </c>
       <c r="H14" t="s">
         <v>312</v>
@@ -4979,15 +5243,12 @@
         <v>588</v>
       </c>
       <c r="AA14" t="s">
-        <v>640</v>
-      </c>
-      <c r="AB14" t="s">
         <v>101</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>190</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>491</v>
       </c>
     </row>
@@ -4996,7 +5257,7 @@
         <v>498</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>260</v>
@@ -5017,15 +5278,12 @@
         <v>251</v>
       </c>
       <c r="AA15" t="s">
-        <v>641</v>
-      </c>
-      <c r="AB15" t="s">
         <v>618</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>191</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5034,7 +5292,7 @@
         <v>468</v>
       </c>
       <c r="F16" t="s">
-        <v>377</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>261</v>
@@ -5055,15 +5313,12 @@
         <v>247</v>
       </c>
       <c r="AA16" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB16" t="s">
         <v>562</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>192</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5072,7 +5327,7 @@
         <v>193</v>
       </c>
       <c r="F17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H17" t="s">
         <v>313</v>
@@ -5087,15 +5342,12 @@
         <v>248</v>
       </c>
       <c r="AA17" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB17" t="s">
         <v>102</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>458</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5104,7 +5356,7 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="H18" t="s">
         <v>88</v>
@@ -5119,12 +5371,9 @@
         <v>249</v>
       </c>
       <c r="AA18" t="s">
-        <v>644</v>
-      </c>
-      <c r="AB18" t="s">
         <v>74</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5133,7 +5382,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>621</v>
+        <v>407</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -5142,12 +5391,9 @@
         <v>454</v>
       </c>
       <c r="AA19" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB19" t="s">
         <v>484</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5156,7 +5402,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -5165,12 +5411,9 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s">
-        <v>646</v>
-      </c>
-      <c r="AB20" t="s">
         <v>103</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5179,7 +5422,7 @@
         <v>388</v>
       </c>
       <c r="F21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -5188,12 +5431,9 @@
         <v>83</v>
       </c>
       <c r="AA21" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB21" t="s">
         <v>104</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5202,7 +5442,7 @@
         <v>404</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>623</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -5211,12 +5451,9 @@
         <v>544</v>
       </c>
       <c r="AA22" t="s">
-        <v>560</v>
-      </c>
-      <c r="AB22" t="s">
         <v>105</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5225,7 +5462,7 @@
         <v>405</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -5234,12 +5471,9 @@
         <v>461</v>
       </c>
       <c r="AA23" t="s">
-        <v>648</v>
-      </c>
-      <c r="AB23" t="s">
         <v>106</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5248,7 +5482,7 @@
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -5257,12 +5491,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>649</v>
-      </c>
-      <c r="AB24" t="s">
         <v>485</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>523</v>
       </c>
     </row>
@@ -5271,7 +5502,7 @@
         <v>389</v>
       </c>
       <c r="F25" t="s">
-        <v>624</v>
+        <v>252</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -5280,12 +5511,9 @@
         <v>384</v>
       </c>
       <c r="AA25" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB25" t="s">
         <v>107</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5294,7 +5522,7 @@
         <v>611</v>
       </c>
       <c r="F26" t="s">
-        <v>528</v>
+        <v>624</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -5303,21 +5531,18 @@
         <v>626</v>
       </c>
       <c r="AA26" t="s">
-        <v>558</v>
-      </c>
-      <c r="AB26" t="s">
         <v>532</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>557</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>528</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -5326,21 +5551,18 @@
         <v>515</v>
       </c>
       <c r="AA27" t="s">
-        <v>651</v>
-      </c>
-      <c r="AB27" t="s">
         <v>108</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -5349,18 +5571,15 @@
         <v>84</v>
       </c>
       <c r="AA28" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>317</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -5369,18 +5588,15 @@
         <v>426</v>
       </c>
       <c r="AA29" t="s">
-        <v>653</v>
-      </c>
-      <c r="AB29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>441</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -5389,18 +5605,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>654</v>
-      </c>
-      <c r="AB30" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>406</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>441</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -5409,187 +5622,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB31" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
       <c r="AA32" t="s">
-        <v>656</v>
-      </c>
-      <c r="AB32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>224</v>
-      </c>
       <c r="F33" t="s">
-        <v>459</v>
+        <v>223</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
       </c>
       <c r="AA33" t="s">
-        <v>657</v>
-      </c>
-      <c r="AB33" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H34" t="s">
         <v>500</v>
       </c>
       <c r="AA34" t="s">
-        <v>658</v>
-      </c>
-      <c r="AB34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
       </c>
       <c r="AA35" t="s">
-        <v>659</v>
-      </c>
-      <c r="AB35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>63</v>
+        <v>408</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
       </c>
       <c r="AA36" t="s">
-        <v>660</v>
-      </c>
-      <c r="AB36" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
       </c>
       <c r="AA37" t="s">
-        <v>661</v>
-      </c>
-      <c r="AB37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
       </c>
       <c r="AA38" t="s">
-        <v>662</v>
-      </c>
-      <c r="AB38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H42" t="s">
         <v>209</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H43" t="s">
         <v>529</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>625</v>
+        <v>70</v>
       </c>
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>625</v>
+      </c>
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5597,7 +5786,7 @@
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5605,7 +5794,7 @@
       <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5613,7 +5802,7 @@
       <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5621,7 +5810,7 @@
       <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5629,7 +5818,7 @@
       <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5637,7 +5826,7 @@
       <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>619</v>
       </c>
     </row>
@@ -5645,7 +5834,7 @@
       <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5653,7 +5842,7 @@
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5661,7 +5850,7 @@
       <c r="H54" t="s">
         <v>349</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5669,7 +5858,7 @@
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5677,7 +5866,7 @@
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5685,7 +5874,7 @@
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5693,7 +5882,7 @@
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5701,7 +5890,7 @@
       <c r="H59" t="s">
         <v>530</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5709,7 +5898,7 @@
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5717,7 +5906,7 @@
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5725,7 +5914,7 @@
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5733,7 +5922,7 @@
       <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5741,7 +5930,7 @@
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5749,7 +5938,7 @@
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5757,7 +5946,7 @@
       <c r="H66" t="s">
         <v>362</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5765,7 +5954,7 @@
       <c r="H67" t="s">
         <v>363</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5773,7 +5962,7 @@
       <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5781,7 +5970,7 @@
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5789,7 +5978,7 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5797,7 +5986,7 @@
       <c r="H71" t="s">
         <v>516</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5805,7 +5994,7 @@
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5813,7 +6002,7 @@
       <c r="H73" t="s">
         <v>402</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5821,7 +6010,7 @@
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5829,7 +6018,7 @@
       <c r="H75" t="s">
         <v>403</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5837,7 +6026,7 @@
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5845,7 +6034,7 @@
       <c r="H77" t="s">
         <v>501</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5853,7 +6042,7 @@
       <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5861,7 +6050,7 @@
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>663</v>
       </c>
     </row>
@@ -5869,7 +6058,7 @@
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5877,7 +6066,7 @@
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5885,7 +6074,7 @@
       <c r="H82" t="s">
         <v>421</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5893,7 +6082,7 @@
       <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5901,7 +6090,7 @@
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5909,7 +6098,7 @@
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5917,7 +6106,7 @@
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5925,7 +6114,7 @@
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5933,7 +6122,7 @@
       <c r="H88" t="s">
         <v>518</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5941,7 +6130,7 @@
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5949,7 +6138,7 @@
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5957,7 +6146,7 @@
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5965,7 +6154,7 @@
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>550</v>
       </c>
     </row>
@@ -5973,7 +6162,7 @@
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5981,7 +6170,7 @@
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5989,7 +6178,7 @@
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5997,7 +6186,7 @@
       <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6005,7 +6194,7 @@
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6013,272 +6202,272 @@
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>670</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="673">
   <si>
     <t>description</t>
   </si>
@@ -2103,7 +2103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="80" x14ac:knownFonts="1">
+  <fonts count="114" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2617,8 +2617,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="105">
+  <fills count="153">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2800,6 +3014,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3582,7 +4068,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="145">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3889,55 +4375,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="77" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="86" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="86" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="89" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="89" fontId="66" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="92" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="92" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="69" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="98" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="98" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="101" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="101" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="89" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="89" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="92" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="92" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="104" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="92" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="92" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="101" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="101" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="107" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="110" fontId="82" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="113" fontId="83" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="116" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="119" fontId="86" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="113" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="116" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="128" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="116" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="131" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="140" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="143" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="146" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="140" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="140" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
@@ -30,12 +30,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5607" uniqueCount="677">
   <si>
     <t>description</t>
   </si>
@@ -2096,6 +2096,18 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="114" x14ac:knownFonts="1">
+  <fonts count="148" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2831,8 +2843,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="153">
+  <fills count="201">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3014,6 +3240,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4068,7 +4566,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="179">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4477,55 +4975,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="131" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="131" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="99" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="100" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="140" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="140" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="143" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="143" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="146" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="146" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="140" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="140" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="152" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="140" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="140" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="155" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="158" fontId="116" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="161" fontId="117" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="164" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="167" fontId="120" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="170" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="173" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="161" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="164" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="176" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="164" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="173" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="182" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="185" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="194" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="185" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="197" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5099,7 +5699,7 @@
         <v>479</v>
       </c>
       <c r="Q2" t="s">
-        <v>409</v>
+        <v>674</v>
       </c>
       <c r="R2" t="s">
         <v>422</v>
@@ -5193,6 +5793,9 @@
       <c r="P3" t="s">
         <v>480</v>
       </c>
+      <c r="Q3" t="s">
+        <v>675</v>
+      </c>
       <c r="R3" t="s">
         <v>423</v>
       </c>
@@ -5279,6 +5882,9 @@
       <c r="P4" t="s">
         <v>481</v>
       </c>
+      <c r="Q4" t="s">
+        <v>676</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -5490,7 +6096,7 @@
         <v>344</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>673</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -5552,7 +6158,7 @@
         <v>525</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -5611,7 +6217,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>476</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -5661,7 +6267,7 @@
         <v>589</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -5705,7 +6311,7 @@
         <v>590</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
         <v>462</v>
@@ -5743,7 +6349,7 @@
         <v>444</v>
       </c>
       <c r="L12" t="s">
-        <v>477</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>527</v>
@@ -5781,7 +6387,7 @@
         <v>318</v>
       </c>
       <c r="L13" t="s">
-        <v>382</v>
+        <v>477</v>
       </c>
       <c r="N13" t="s">
         <v>428</v>
@@ -5819,7 +6425,7 @@
         <v>319</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>382</v>
       </c>
       <c r="N14" t="s">
         <v>463</v>
@@ -5854,7 +6460,7 @@
         <v>320</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -5889,7 +6495,7 @@
         <v>321</v>
       </c>
       <c r="L16" t="s">
-        <v>478</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>531</v>
@@ -5921,7 +6527,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -5950,7 +6556,7 @@
         <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -5976,7 +6582,7 @@
         <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s">
         <v>484</v>
@@ -5996,7 +6602,7 @@
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="AA20" t="s">
         <v>103</v>
@@ -6016,7 +6622,7 @@
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s">
         <v>104</v>
@@ -6036,7 +6642,7 @@
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>544</v>
+        <v>83</v>
       </c>
       <c r="AA22" t="s">
         <v>105</v>
@@ -6056,7 +6662,7 @@
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>461</v>
+        <v>544</v>
       </c>
       <c r="AA23" t="s">
         <v>106</v>
@@ -6076,7 +6682,7 @@
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>461</v>
       </c>
       <c r="AA24" t="s">
         <v>485</v>
@@ -6096,7 +6702,7 @@
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>107</v>
@@ -6116,7 +6722,7 @@
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>626</v>
+        <v>384</v>
       </c>
       <c r="AA26" t="s">
         <v>532</v>
@@ -6136,7 +6742,7 @@
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>515</v>
+        <v>626</v>
       </c>
       <c r="AA27" t="s">
         <v>108</v>
@@ -6156,7 +6762,7 @@
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>515</v>
       </c>
       <c r="AA28" t="s">
         <v>109</v>
@@ -6173,7 +6779,7 @@
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>426</v>
+        <v>84</v>
       </c>
       <c r="AA29" t="s">
         <v>110</v>
@@ -6190,7 +6796,7 @@
         <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="AA30" t="s">
         <v>111</v>
@@ -6207,7 +6813,7 @@
         <v>213</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>323</v>
@@ -6222,6 +6828,9 @@
       </c>
       <c r="H32" t="s">
         <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>112</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
@@ -35,12 +35,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5607" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6216" uniqueCount="683">
   <si>
     <t>description</t>
   </si>
@@ -2108,6 +2108,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="148" x14ac:knownFonts="1">
+  <fonts count="165" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3057,8 +3075,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="201">
+  <fills count="225">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3240,6 +3365,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4566,7 +4827,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="196">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5077,55 +5338,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="173" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="179" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="182" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="182" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="185" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="185" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="188" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="191" fontId="137" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="194" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="194" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="197" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="185" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="185" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="188" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="200" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="188" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="197" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="209" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="212" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="221" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="209" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="212" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="224" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="212" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="221" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5699,7 +6011,7 @@
         <v>479</v>
       </c>
       <c r="Q2" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="R2" t="s">
         <v>422</v>
@@ -5794,7 +6106,7 @@
         <v>480</v>
       </c>
       <c r="Q3" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="R3" t="s">
         <v>423</v>
@@ -5883,7 +6195,7 @@
         <v>481</v>
       </c>
       <c r="Q4" t="s">
-        <v>676</v>
+        <v>409</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -5965,6 +6277,9 @@
       <c r="O5" t="s">
         <v>505</v>
       </c>
+      <c r="Q5" t="s">
+        <v>679</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -6399,7 +6714,7 @@
         <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>246</v>
+        <v>680</v>
       </c>
       <c r="AA13" t="s">
         <v>322</v>
@@ -6434,7 +6749,7 @@
         <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>588</v>
+        <v>246</v>
       </c>
       <c r="AA14" t="s">
         <v>101</v>
@@ -6469,7 +6784,7 @@
         <v>482</v>
       </c>
       <c r="S15" t="s">
-        <v>251</v>
+        <v>588</v>
       </c>
       <c r="AA15" t="s">
         <v>618</v>
@@ -6504,7 +6819,7 @@
         <v>483</v>
       </c>
       <c r="S16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA16" t="s">
         <v>562</v>
@@ -6533,7 +6848,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA17" t="s">
         <v>102</v>
@@ -6562,7 +6877,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA18" t="s">
         <v>74</v>
@@ -6584,6 +6899,9 @@
       <c r="L19" t="s">
         <v>81</v>
       </c>
+      <c r="S19" t="s">
+        <v>681</v>
+      </c>
       <c r="AA19" t="s">
         <v>484</v>
       </c>
@@ -6604,6 +6922,9 @@
       <c r="L20" t="s">
         <v>454</v>
       </c>
+      <c r="S20" t="s">
+        <v>249</v>
+      </c>
       <c r="AA20" t="s">
         <v>103</v>
       </c>
@@ -6623,6 +6944,9 @@
       </c>
       <c r="L21" t="s">
         <v>82</v>
+      </c>
+      <c r="S21" t="s">
+        <v>682</v>
       </c>
       <c r="AA21" t="s">
         <v>104</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil_assert.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7282DE2D-702F-4D9A-A948-536164F73D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -48,15 +48,17 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="671">
   <si>
     <t>description</t>
   </si>
@@ -1979,13 +1981,125 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2084,8 +2198,115 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2120,6 +2341,142 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2168,7 +2525,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2348,6 +2705,57 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2761,18 +3169,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2861,16 +3269,22 @@
         <v>55</v>
       </c>
       <c r="AD1" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AF1" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>405</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>363</v>
       </c>
@@ -2959,16 +3373,22 @@
         <v>172</v>
       </c>
       <c r="AD2" t="s">
+        <v>660</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF2" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>423</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>444</v>
       </c>
@@ -3051,16 +3471,22 @@
         <v>173</v>
       </c>
       <c r="AD3" t="s">
+        <v>661</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>664</v>
+      </c>
+      <c r="AF3" t="s">
         <v>356</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>464</v>
       </c>
@@ -3140,16 +3566,22 @@
         <v>174</v>
       </c>
       <c r="AD4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>665</v>
+      </c>
+      <c r="AF4" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>415</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>535</v>
       </c>
@@ -3216,17 +3648,20 @@
       <c r="AC5" t="s">
         <v>551</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>666</v>
+      </c>
+      <c r="AF5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>416</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3287,17 +3722,20 @@
       <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>667</v>
+      </c>
+      <c r="AF6" t="s">
         <v>182</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>417</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3352,17 +3790,20 @@
       <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>668</v>
+      </c>
+      <c r="AF7" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>418</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3376,7 +3817,7 @@
         <v>358</v>
       </c>
       <c r="I8" t="s">
-        <v>323</v>
+        <v>656</v>
       </c>
       <c r="K8" t="s">
         <v>522</v>
@@ -3414,17 +3855,20 @@
       <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>669</v>
+      </c>
+      <c r="AF8" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>419</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3438,7 +3882,7 @@
         <v>359</v>
       </c>
       <c r="I9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -3470,14 +3914,17 @@
       <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>670</v>
+      </c>
+      <c r="AF9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3488,7 +3935,7 @@
         <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>579</v>
+        <v>324</v>
       </c>
       <c r="L10" t="s">
         <v>473</v>
@@ -3514,14 +3961,14 @@
       <c r="AC10" t="s">
         <v>550</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>186</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>342</v>
       </c>
@@ -3532,7 +3979,7 @@
         <v>347</v>
       </c>
       <c r="I11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L11" t="s">
         <v>79</v>
@@ -3552,14 +3999,14 @@
       <c r="AA11" t="s">
         <v>253</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>254</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3570,7 +4017,7 @@
         <v>269</v>
       </c>
       <c r="I12" t="s">
-        <v>441</v>
+        <v>580</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -3590,14 +4037,14 @@
       <c r="AA12" t="s">
         <v>100</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>187</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -3608,7 +4055,7 @@
         <v>258</v>
       </c>
       <c r="I13" t="s">
-        <v>317</v>
+        <v>441</v>
       </c>
       <c r="L13" t="s">
         <v>474</v>
@@ -3628,14 +4075,14 @@
       <c r="AA13" t="s">
         <v>321</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>188</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3646,7 +4093,7 @@
         <v>311</v>
       </c>
       <c r="I14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L14" t="s">
         <v>381</v>
@@ -3663,14 +4110,14 @@
       <c r="AA14" t="s">
         <v>101</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>189</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>495</v>
       </c>
@@ -3681,7 +4128,7 @@
         <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -3698,14 +4145,14 @@
       <c r="AA15" t="s">
         <v>607</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>465</v>
       </c>
@@ -3716,7 +4163,7 @@
         <v>260</v>
       </c>
       <c r="I16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -3733,14 +4180,14 @@
       <c r="AA16" t="s">
         <v>553</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>191</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -3750,6 +4197,9 @@
       <c r="H17" t="s">
         <v>312</v>
       </c>
+      <c r="I17" t="s">
+        <v>320</v>
+      </c>
       <c r="L17" t="s">
         <v>475</v>
       </c>
@@ -3762,14 +4212,14 @@
       <c r="AA17" t="s">
         <v>102</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>455</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3779,6 +4229,9 @@
       <c r="H18" t="s">
         <v>88</v>
       </c>
+      <c r="I18" t="s">
+        <v>657</v>
+      </c>
       <c r="L18" t="s">
         <v>80</v>
       </c>
@@ -3791,16 +4244,16 @@
       <c r="AA18" t="s">
         <v>74</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>406</v>
+        <v>636</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -3814,16 +4267,16 @@
       <c r="AA19" t="s">
         <v>481</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="H20" t="s">
         <v>291</v>
@@ -3837,16 +4290,16 @@
       <c r="AA20" t="s">
         <v>103</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>611</v>
+        <v>406</v>
       </c>
       <c r="H21" t="s">
         <v>292</v>
@@ -3860,16 +4313,16 @@
       <c r="AA21" t="s">
         <v>104</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>403</v>
       </c>
       <c r="F22" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H22" t="s">
         <v>293</v>
@@ -3880,16 +4333,16 @@
       <c r="AA22" t="s">
         <v>105</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>404</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>611</v>
       </c>
       <c r="H23" t="s">
         <v>294</v>
@@ -3900,16 +4353,16 @@
       <c r="AA23" t="s">
         <v>106</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>612</v>
       </c>
       <c r="H24" t="s">
         <v>285</v>
@@ -3920,16 +4373,16 @@
       <c r="AA24" t="s">
         <v>482</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
@@ -3940,964 +4393,1025 @@
       <c r="AA25" t="s">
         <v>107</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>600</v>
       </c>
       <c r="F26" t="s">
-        <v>613</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>638</v>
       </c>
       <c r="L26" t="s">
         <v>383</v>
       </c>
       <c r="AA26" t="s">
-        <v>529</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>658</v>
+      </c>
+      <c r="AH26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>525</v>
+        <v>251</v>
       </c>
       <c r="H27" t="s">
-        <v>277</v>
+        <v>639</v>
       </c>
       <c r="L27" t="s">
         <v>615</v>
       </c>
       <c r="AA27" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>529</v>
+      </c>
+      <c r="AH27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>613</v>
       </c>
       <c r="H28" t="s">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="L28" t="s">
         <v>512</v>
       </c>
       <c r="AA28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="H29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s">
         <v>84</v>
       </c>
       <c r="AA29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>634</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
         <v>425</v>
       </c>
       <c r="AA30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>405</v>
+        <v>635</v>
       </c>
       <c r="F31" t="s">
-        <v>438</v>
+        <v>316</v>
       </c>
       <c r="H31" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
         <v>44</v>
       </c>
       <c r="AA31" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
       <c r="AA32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>405</v>
+      </c>
+      <c r="F33" t="s">
+        <v>438</v>
+      </c>
+      <c r="H33" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
         <v>222</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H35" t="s">
         <v>280</v>
       </c>
-      <c r="AA33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
+      <c r="AA35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
         <v>456</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H36" t="s">
         <v>497</v>
       </c>
-      <c r="AA34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+      <c r="AA36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
         <v>457</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H37" t="s">
         <v>255</v>
       </c>
-      <c r="AA35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
+      <c r="AA37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
         <v>407</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H38" t="s">
         <v>325</v>
       </c>
-      <c r="AA36" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
+      <c r="AA38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
         <v>63</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H39" t="s">
         <v>302</v>
       </c>
-      <c r="AA37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
+      <c r="AA39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
         <v>64</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H40" t="s">
         <v>256</v>
       </c>
-      <c r="AA38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
+      <c r="AA40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" t="s">
         <v>65</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H41" t="s">
         <v>303</v>
       </c>
-      <c r="AA39" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
+      <c r="AA41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" t="s">
         <v>66</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H42" t="s">
         <v>262</v>
       </c>
-      <c r="AA40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
+      <c r="AA42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" t="s">
         <v>67</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H43" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" t="s">
         <v>77</v>
       </c>
-      <c r="AA41" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="AA44" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" t="s">
         <v>208</v>
       </c>
-      <c r="AA42" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="AA45" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" t="s">
         <v>526</v>
       </c>
-      <c r="AA43" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="AA46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
+        <v>614</v>
+      </c>
+      <c r="H47" t="s">
         <v>284</v>
       </c>
-      <c r="AA44" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
-        <v>614</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="AA47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="H48" t="s">
         <v>295</v>
       </c>
-      <c r="AA45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="H46" t="s">
+      <c r="AA48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="H49" t="s">
         <v>296</v>
       </c>
-      <c r="AA46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="H47" t="s">
+      <c r="AA49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="H50" t="s">
         <v>338</v>
       </c>
-      <c r="AA47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="H48" t="s">
+      <c r="AA50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="H51" t="s">
         <v>337</v>
       </c>
-      <c r="AA48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H49" t="s">
+      <c r="AA51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="H52" t="s">
         <v>207</v>
       </c>
-      <c r="AA49" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H50" t="s">
+      <c r="AA52" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="H53" t="s">
         <v>315</v>
       </c>
-      <c r="AA50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H51" t="s">
+      <c r="AA53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="H54" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="H55" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="H56" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="H57" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="H58" t="s">
         <v>334</v>
       </c>
-      <c r="AA51" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H52" t="s">
+      <c r="AA58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="H59" t="s">
         <v>360</v>
       </c>
-      <c r="AA52" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H53" t="s">
+      <c r="AA59" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="H60" t="s">
         <v>297</v>
       </c>
-      <c r="AA53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H54" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H55" t="s">
+      <c r="AA60" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="H61" t="s">
         <v>326</v>
       </c>
-      <c r="AA55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H56" t="s">
+      <c r="AA61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="H62" t="s">
         <v>263</v>
       </c>
-      <c r="AA56" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H57" t="s">
+      <c r="AA62" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="H63" t="s">
         <v>287</v>
       </c>
-      <c r="AA57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H58" t="s">
+      <c r="AA63" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="H64" t="s">
         <v>288</v>
       </c>
-      <c r="AA58" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H59" t="s">
+      <c r="AA64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="H65" t="s">
         <v>527</v>
       </c>
-      <c r="AA59" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H60" t="s">
+      <c r="AA65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="H66" t="s">
         <v>289</v>
       </c>
-      <c r="AA60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H61" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H62" t="s">
+      <c r="AA66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="H67" t="s">
+        <v>645</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="H68" t="s">
+        <v>646</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="H69" t="s">
+        <v>647</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="H70" t="s">
         <v>307</v>
       </c>
-      <c r="AA62" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H63" t="s">
+      <c r="AA70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="H71" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="H72" t="s">
+        <v>649</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="H73" t="s">
         <v>332</v>
       </c>
-      <c r="AA63" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H64" t="s">
+      <c r="AA73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="H74" t="s">
         <v>304</v>
       </c>
-      <c r="AA64" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H65" t="s">
+      <c r="AA74" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="H75" t="s">
         <v>305</v>
       </c>
-      <c r="AA65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H66" t="s">
+      <c r="AA75" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="H76" t="s">
         <v>361</v>
       </c>
-      <c r="AA66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H67" t="s">
+      <c r="AA76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="H77" t="s">
         <v>362</v>
       </c>
-      <c r="AA67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H68" t="s">
+      <c r="AA77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="AA68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H69" t="s">
+      <c r="AA78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="H79" t="s">
         <v>308</v>
       </c>
-      <c r="AA69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H70" t="s">
+      <c r="AA79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="H80" t="s">
         <v>264</v>
       </c>
-      <c r="AA70" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H71" t="s">
+      <c r="AA80" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="H81" t="s">
         <v>513</v>
       </c>
-      <c r="AA71" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H72" t="s">
+      <c r="AA81" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="H82" t="s">
         <v>309</v>
       </c>
-      <c r="AA72" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H73" t="s">
+      <c r="AA82" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="H83" t="s">
         <v>401</v>
       </c>
-      <c r="AA73" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H74" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H75" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H76" t="s">
+      <c r="AA83" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="H84" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="H85" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="H86" t="s">
         <v>257</v>
       </c>
-      <c r="AA76" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H77" t="s">
+      <c r="AA86" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="H87" t="s">
         <v>498</v>
       </c>
-      <c r="AA77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H78" t="s">
+      <c r="AA87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="H88" t="s">
         <v>339</v>
       </c>
-      <c r="AA78" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H79" t="s">
+      <c r="AA88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="H89" t="s">
         <v>275</v>
       </c>
-      <c r="AA79" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H80" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H81" t="s">
+      <c r="AA89" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="H90" t="s">
+        <v>652</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="H91" t="s">
+        <v>653</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="H92" t="s">
         <v>286</v>
       </c>
-      <c r="AA81" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H82" t="s">
+      <c r="AA92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="H93" t="s">
         <v>420</v>
       </c>
-      <c r="AA82" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H83" t="s">
+      <c r="AA93" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="H94" t="s">
         <v>327</v>
       </c>
-      <c r="AA83" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H84" t="s">
+      <c r="AA94" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="H95" t="s">
         <v>265</v>
       </c>
-      <c r="AA84" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H85" t="s">
+      <c r="AA95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="H96" t="s">
         <v>276</v>
       </c>
-      <c r="AA85" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H86" t="s">
+      <c r="AA96" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="H97" t="s">
         <v>282</v>
       </c>
-      <c r="AA86" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H87" t="s">
+      <c r="AA97" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="H98" t="s">
         <v>271</v>
       </c>
-      <c r="AA87" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H88" t="s">
+      <c r="AA98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
         <v>515</v>
       </c>
-      <c r="AA88" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H89" t="s">
+      <c r="AA99" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
         <v>266</v>
       </c>
-      <c r="AA89" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H90" t="s">
+      <c r="AA100" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
         <v>283</v>
       </c>
-      <c r="AA90" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H91" t="s">
+      <c r="AA101" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>654</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
         <v>267</v>
       </c>
-      <c r="AA91" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H92" t="s">
+      <c r="AA104" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
         <v>268</v>
       </c>
-      <c r="AA92" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H93" t="s">
+      <c r="AA105" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
         <v>300</v>
       </c>
-      <c r="AA93" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H94" t="s">
+      <c r="AA106" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
         <v>306</v>
       </c>
-      <c r="AA94" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H95" t="s">
+      <c r="AA107" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
         <v>290</v>
       </c>
-      <c r="AA95" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H96" t="s">
+      <c r="AA108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
         <v>335</v>
       </c>
-      <c r="AA96" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H97" t="s">
+      <c r="AA109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
         <v>272</v>
       </c>
-      <c r="AA97" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H98" t="s">
+      <c r="AA110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>273</v>
       </c>
-      <c r="AA98" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="112">
+      <c r="AA112" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="113">
+      <c r="AA113" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="114">
+      <c r="AA114" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
+    <row r="115">
+      <c r="AA115" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="116">
+      <c r="AA116" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AA117" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AA118" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AA119" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AA120" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AA121" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AA122" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AA123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AA124" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AA125" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AA126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AA127" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AA128" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AA129" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AA130" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AA131" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AA132" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AA133" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AA134" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AA135" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AA136" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AA137" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AA138" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AA139" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AA140" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AA141" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AA142" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
+    <row r="143">
+      <c r="AA143" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="144">
+      <c r="AA144" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AA145" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AA146" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AA147" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="146" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA146" t="s">
+    <row r="148">
+      <c r="AA148" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="147" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA147" t="s">
+    <row r="149">
+      <c r="AA149" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="148" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA148" t="s">
+    <row r="150">
+      <c r="AA150" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="149" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA149" t="s">
+    <row r="151">
+      <c r="AA151" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="150" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA150" t="s">
+    <row r="152">
+      <c r="AA152" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="151" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA151" t="s">
+    <row r="153">
+      <c r="AA153" t="s">
         <v>624</v>
       </c>
     </row>
@@ -4908,27 +5422,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705974CF-2910-48AC-A13F-B6709B620C68}">
-  <dimension ref="A1:O302"/>
+  <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="15.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.875" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="23.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="38.875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="32.5" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="15.875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="15.875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5308,7 +5822,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>376</v>
+        <v>636</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>574</v>
@@ -10254,27 +10768,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O302"/>
+  <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="15.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="30.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="36.875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="32.5" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="15.875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="27.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
